--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
-    <t>2020-09-11 08:00:00</t>
-  </si>
-  <si>
-    <t>恐惧 : 41</t>
+    <t>2020-09-17 08:00:00</t>
+  </si>
+  <si>
+    <t>Neutral : 48</t>
   </si>
   <si>
     <t>Token</t>
@@ -58,7 +58,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.8346</t>
+    <t>6.7693</t>
   </si>
   <si>
     <t>ETH</t>
@@ -136,10 +136,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -186,6 +186,112 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,8 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,113 +318,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -358,19 +358,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,145 +490,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,39 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -587,21 +554,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +575,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -631,145 +616,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8303571428571" defaultRowHeight="22" customHeight="1"/>
@@ -1292,21 +1292,21 @@
         <v>3353</v>
       </c>
       <c r="F4" s="7">
-        <v>10305.9248826</v>
+        <v>10881.3841209</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G25" si="0">(F4-C4)/C4</f>
-        <v>2.26653720526149</v>
+        <v>2.44893316034865</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ref="H4:H25" si="1">(F4-E4)/E4</f>
-        <v>2.07364297124963</v>
+        <v>2.24526815416045</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>190511132868.316</v>
+        <v>201217934924.788</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>14</v>
@@ -1331,21 +1331,21 @@
         <v>101.03</v>
       </c>
       <c r="F5" s="7">
-        <v>364.838595808</v>
+        <v>378.013591284</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>3.45305255471744</v>
+        <v>3.61386050633468</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="1"/>
-        <v>2.61119069393249</v>
+        <v>2.74159745901217</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>41063254166.3261</v>
+        <v>42578363660.2598</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>16</v>
@@ -1368,24 +1368,24 @@
         <v>0.175</v>
       </c>
       <c r="F6" s="7">
-        <v>0.24211138234</v>
+        <v>0.249343971223</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>-0.0158073888617887</v>
+        <v>0.0135933789552846</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="1"/>
-        <v>0.383493613371429</v>
+        <v>0.424822692702857</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>10897733620.2817</v>
+        <v>11231035657.4903</v>
       </c>
       <c r="K6" s="12">
-        <v>6.84</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="7" ht="17.6" customHeight="1" spans="1:11">
@@ -1405,21 +1405,21 @@
         <v>101.06</v>
       </c>
       <c r="F7" s="7">
-        <v>225.21942643</v>
+        <v>233.289288999</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>2.03734897410654</v>
+        <v>2.14618056640593</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="1"/>
-        <v>1.22857140738175</v>
+        <v>1.30842359983178</v>
       </c>
       <c r="I7" s="1">
         <v>6</v>
       </c>
       <c r="J7" s="2">
-        <v>4169751874.32465</v>
+        <v>4320492845.27452</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>19</v>
@@ -1442,25 +1442,25 @@
         <v>29.2</v>
       </c>
       <c r="F8" s="7">
-        <v>48.3459341386</v>
+        <v>48.2853922271</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>1.05465083461963</v>
+        <v>1.05207786770506</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>0.655682675979452</v>
+        <v>0.65360932284589</v>
       </c>
       <c r="I8" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>3163300806.18365</v>
+        <v>3161514169.28762</v>
       </c>
       <c r="K8" s="13">
         <f>(K6-K4)/K4</f>
-        <v>0.000790097445351571</v>
+        <v>-0.00137384958562932</v>
       </c>
     </row>
     <row r="9" ht="17.6" customHeight="1" spans="1:10">
@@ -1480,21 +1480,21 @@
         <v>2.1481</v>
       </c>
       <c r="F9" s="7">
-        <v>2.77149158898</v>
+        <v>2.72055918192</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0.81499121740668</v>
+        <v>0.781636661375246</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>0.290206037419115</v>
+        <v>0.266495592346725</v>
       </c>
       <c r="I9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="2">
-        <v>2593985616.52329</v>
+        <v>2546795192.27588</v>
       </c>
     </row>
     <row r="10" ht="17.6" customHeight="1" spans="1:10">
@@ -1514,21 +1514,21 @@
         <v>0.0303</v>
       </c>
       <c r="F10" s="7">
-        <v>0.0960196710488</v>
+        <v>0.0924758266327</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>2.55628411291852</v>
+        <v>2.42503061602593</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>2.16896604121452</v>
+        <v>2.05200747962706</v>
       </c>
       <c r="I10" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2">
-        <v>2489508784.31779</v>
+        <v>2877152736.23604</v>
       </c>
     </row>
     <row r="11" ht="17.6" customHeight="1" spans="1:10">
@@ -1548,21 +1548,21 @@
         <v>0.04213</v>
       </c>
       <c r="F11" s="7">
-        <v>0.080934228216</v>
+        <v>0.0790692699109</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0.114796531900827</v>
+        <v>0.0891084009765841</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>0.921059297792547</v>
+        <v>0.876792544763826</v>
       </c>
       <c r="I11" s="1">
         <v>17</v>
       </c>
       <c r="J11" s="2">
-        <v>1671860463.60427</v>
+        <v>1636024879.14595</v>
       </c>
     </row>
     <row r="12" ht="17.6" customHeight="1" spans="1:10">
@@ -1582,21 +1582,21 @@
         <v>3.36</v>
       </c>
       <c r="F12" s="9">
-        <v>5.15403458772</v>
+        <v>5.14869180656</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0.605618251626168</v>
+        <v>0.603953833819315</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>0.533938865392857</v>
+        <v>0.532348751952381</v>
       </c>
       <c r="I12" s="14">
         <v>31</v>
       </c>
       <c r="J12" s="14">
-        <v>599482766.057818</v>
+        <v>598861329.555263</v>
       </c>
     </row>
     <row r="13" ht="17.6" customHeight="1" spans="1:10">
@@ -1616,21 +1616,21 @@
         <v>5.37</v>
       </c>
       <c r="F13" s="7">
-        <v>23.6352327051</v>
+        <v>26.7569371356</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>4.62743635835714</v>
+        <v>5.370699318</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>3.4013468724581</v>
+        <v>3.98266985765363</v>
       </c>
       <c r="I13" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="2">
-        <v>3413082649.74299</v>
+        <v>3863877247.88825</v>
       </c>
     </row>
     <row r="14" ht="17.6" customHeight="1" spans="1:10">
@@ -1650,21 +1650,21 @@
         <v>0.58</v>
       </c>
       <c r="F14" s="10">
-        <v>5.41481759478</v>
+        <v>6.19122616224</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>8.3358924047931</v>
+        <v>9.67452786593104</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>8.3358924047931</v>
+        <v>9.67452786593104</v>
       </c>
       <c r="I14" s="12">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J14" s="15">
-        <v>324889055.6868</v>
+        <v>371473569.7344</v>
       </c>
     </row>
     <row r="15" ht="17.6" customHeight="1" spans="1:10">
@@ -1684,21 +1684,21 @@
         <v>0.88</v>
       </c>
       <c r="F15" s="7">
-        <v>4.68289029566</v>
+        <v>4.8063440065</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>4.32146624506818</v>
+        <v>4.46175455284091</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>4.32146624506818</v>
+        <v>4.46175455284091</v>
       </c>
       <c r="I15" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2">
-        <v>1000492006.18813</v>
+        <v>1003449796.61118</v>
       </c>
     </row>
     <row r="16" ht="17.6" customHeight="1" spans="1:10">
@@ -1718,21 +1718,21 @@
         <v>25.12</v>
       </c>
       <c r="F16" s="7">
-        <v>60.4083840557</v>
+        <v>58.4119109075</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0.333518411825607</v>
+        <v>0.289446156898455</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>1.40479235890525</v>
+        <v>1.32531492466162</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2">
-        <v>604661873.281933</v>
+        <v>587310224.782765</v>
       </c>
     </row>
     <row r="17" ht="17.6" customHeight="1" spans="1:10">
@@ -1752,21 +1752,21 @@
         <v>6.37</v>
       </c>
       <c r="F17" s="7">
-        <v>18.8913114197</v>
+        <v>21.0576296022</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>2.48548181175277</v>
+        <v>2.88517151332103</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>1.96566898268446</v>
+        <v>2.3057503300157</v>
       </c>
       <c r="I17" s="1">
         <v>19</v>
       </c>
       <c r="J17" s="2">
-        <v>1332571023.60259</v>
+        <v>1485380575.77018</v>
       </c>
     </row>
     <row r="18" ht="17.6" customHeight="1" spans="1:10">
@@ -1786,21 +1786,21 @@
         <v>1.33</v>
       </c>
       <c r="F18" s="7">
-        <v>2.60730502221</v>
+        <v>2.42857269475</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0.798141394627586</v>
+        <v>0.674877720517241</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>0.960379715947368</v>
+        <v>0.825994507330827</v>
       </c>
       <c r="I18" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2">
-        <v>252951544.219484</v>
+        <v>235652723.173245</v>
       </c>
     </row>
     <row r="19" ht="17.6" customHeight="1" spans="1:10">
@@ -1820,21 +1820,21 @@
         <v>0.2726</v>
       </c>
       <c r="F19" s="7">
-        <v>0.66632189296</v>
+        <v>0.642408406791</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0.480715317688889</v>
+        <v>0.427574237313333</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>1.44432095730007</v>
+        <v>1.35659723694424</v>
       </c>
       <c r="I19" s="1">
         <v>168</v>
       </c>
       <c r="J19" s="2">
-        <v>43310923.0424</v>
+        <v>41756546.441415</v>
       </c>
     </row>
     <row r="20" ht="17.6" customHeight="1" spans="1:10">
@@ -1854,21 +1854,21 @@
         <v>0.0464</v>
       </c>
       <c r="F20" s="10">
-        <v>0.191028147158</v>
+        <v>0.106432133809</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>1.01932502281184</v>
+        <v>0.125075410243129</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>3.11698593012931</v>
+        <v>1.29379598726293</v>
       </c>
       <c r="I20" s="12">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="J20" s="15">
-        <v>104011043.767632</v>
+        <v>57950189.5013106</v>
       </c>
     </row>
     <row r="21" ht="17.6" customHeight="1" spans="1:10">
@@ -1888,21 +1888,21 @@
         <v>0.1495</v>
       </c>
       <c r="F21" s="7">
-        <v>0.291426873228</v>
+        <v>0.269546853315</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0.45713436614</v>
+        <v>0.347734266575</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>0.949343633632107</v>
+        <v>0.802988985384615</v>
       </c>
       <c r="I21" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J21" s="2">
-        <v>810029819.417228</v>
+        <v>749213641.476401</v>
       </c>
     </row>
     <row r="22" ht="17.6" customHeight="1" spans="1:10">
@@ -1922,21 +1922,21 @@
         <v>0.0941</v>
       </c>
       <c r="F22" s="10">
-        <v>0.241280838715</v>
+        <v>0.253372525626</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>1.65143778807692</v>
+        <v>1.78431346841758</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>1.56408967816153</v>
+        <v>1.69258794501594</v>
       </c>
       <c r="I22" s="12">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J22" s="15">
-        <v>45602078.517135</v>
+        <v>47887407.343314</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="1" spans="1:10">
@@ -1956,21 +1956,21 @@
         <v>0.0894</v>
       </c>
       <c r="F23" s="7">
-        <v>0.545517233294</v>
+        <v>0.423056590245</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>3.54597694411667</v>
+        <v>2.525471585375</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>5.10198247532439</v>
+        <v>3.73217662466443</v>
       </c>
       <c r="I23" s="1">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J23" s="2">
-        <v>108307382.390504</v>
+        <v>84010121.813587</v>
       </c>
     </row>
     <row r="24" ht="17.6" customHeight="1" spans="1:10">
@@ -1990,21 +1990,21 @@
         <v>0.00262</v>
       </c>
       <c r="F24" s="10">
-        <v>0.00492550078263</v>
+        <v>0.0036821709861</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0.296184416481579</v>
+        <v>-0.0310076352368421</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>0.879962130774809</v>
+        <v>0.405408773320611</v>
       </c>
       <c r="I24" s="12">
-        <v>633</v>
+        <v>720</v>
       </c>
       <c r="J24" s="15">
-        <v>5910599.08752628</v>
+        <v>4418603.79909177</v>
       </c>
     </row>
     <row r="25" ht="17.6" customHeight="1" spans="1:10">
@@ -2024,21 +2024,21 @@
         <v>0.007166</v>
       </c>
       <c r="F25" s="7">
-        <v>0.0125504212901</v>
+        <v>0.0111000475485</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>-0.521341674672006</v>
+        <v>-0.576657225457666</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>0.751384494850684</v>
+        <v>0.548987935877756</v>
       </c>
       <c r="I25" s="1">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="J25" s="2">
-        <v>18502935.0762246</v>
+        <v>16370065.7302096</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1"/>
@@ -2080,7 +2080,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96466595-8f4e-4e5d-98dc-c20eba048bad}</x14:id>
+          <x14:id>{315fade7-ddcd-46b2-b707-23749cc336c7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2094,7 +2094,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c62defd3-af33-4d87-8353-b5703069adf4}</x14:id>
+          <x14:id>{d1253afe-984f-4dbf-ae95-8ef154c863a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2106,7 +2106,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f7766678-5114-4ac6-aef0-4cd27ce3732e}</x14:id>
+          <x14:id>{4a938ad8-fa25-419b-b84c-2102282bcbef}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2120,7 +2120,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ce2f971-b67e-4bae-8511-4b9031cfc9bc}</x14:id>
+          <x14:id>{b28d0f93-49ac-4b7d-95c6-84e36fc7f023}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2134,7 +2134,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b4f4e132-d1b0-4832-a4d0-989ddbcd49be}</x14:id>
+          <x14:id>{5c568035-91e4-4dc0-abb0-eb026770dd57}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2146,7 +2146,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{488e581f-c98d-444b-a3f7-d1e3429e2ae6}</x14:id>
+          <x14:id>{165faafa-36fb-4054-82fc-476bcd773b38}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2160,7 +2160,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94fee656-9948-4956-a88b-4ee0671bdd80}</x14:id>
+          <x14:id>{b7e9a3f0-c395-497f-92ed-92ba16eba35d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2174,7 +2174,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1cfc363f-cbce-48a0-8513-4b19209e36dd}</x14:id>
+          <x14:id>{adf2b841-d33f-4ee4-b129-bcb27a31718a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2182,11 +2182,14 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="K4" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96466595-8f4e-4e5d-98dc-c20eba048bad}">
+          <x14:cfRule type="dataBar" id="{315fade7-ddcd-46b2-b707-23749cc336c7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2196,14 +2199,14 @@
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c62defd3-af33-4d87-8353-b5703069adf4}">
+          <x14:cfRule type="dataBar" id="{d1253afe-984f-4dbf-ae95-8ef154c863a8}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f7766678-5114-4ac6-aef0-4cd27ce3732e}">
+          <x14:cfRule type="dataBar" id="{4a938ad8-fa25-419b-b84c-2102282bcbef}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2213,7 +2216,7 @@
           <xm:sqref>G4:G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ce2f971-b67e-4bae-8511-4b9031cfc9bc}">
+          <x14:cfRule type="dataBar" id="{b28d0f93-49ac-4b7d-95c6-84e36fc7f023}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2223,14 +2226,14 @@
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b4f4e132-d1b0-4832-a4d0-989ddbcd49be}">
+          <x14:cfRule type="dataBar" id="{5c568035-91e4-4dc0-abb0-eb026770dd57}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{488e581f-c98d-444b-a3f7-d1e3429e2ae6}">
+          <x14:cfRule type="dataBar" id="{165faafa-36fb-4054-82fc-476bcd773b38}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2240,7 +2243,7 @@
           <xm:sqref>H4:H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{94fee656-9948-4956-a88b-4ee0671bdd80}">
+          <x14:cfRule type="dataBar" id="{b7e9a3f0-c395-497f-92ed-92ba16eba35d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2250,7 +2253,7 @@
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1cfc363f-cbce-48a0-8513-4b19209e36dd}">
+          <x14:cfRule type="dataBar" id="{adf2b841-d33f-4ee4-b129-bcb27a31718a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
-  <si>
-    <t>2020-09-17 08:00:00</t>
-  </si>
-  <si>
-    <t>Neutral : 48</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+  <si>
+    <t>2020-10-22 08:00:00</t>
+  </si>
+  <si>
+    <t>贪婪 : 73</t>
   </si>
   <si>
     <t>Token</t>
@@ -58,7 +58,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.7693</t>
+    <t>6.6645</t>
   </si>
   <si>
     <t>ETH</t>
@@ -70,6 +70,9 @@
     <t>XRP</t>
   </si>
   <si>
+    <t>6.55</t>
+  </si>
+  <si>
     <t>BCH</t>
   </si>
   <si>
@@ -128,6 +131,12 @@
   </si>
   <si>
     <t>PAI</t>
+  </si>
+  <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -135,11 +144,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -176,16 +185,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,8 +206,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,11 +276,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,16 +291,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,31 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,38 +327,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -328,8 +337,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3CB371"/>
-        <bgColor rgb="FF3CB371"/>
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -352,13 +361,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,43 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,109 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,8 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +563,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,18 +617,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,181 +640,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,25 +815,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1211,8 +1214,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8303571428571" defaultRowHeight="22" customHeight="1"/>
@@ -1268,7 +1271,7 @@
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -1292,23 +1295,23 @@
         <v>3353</v>
       </c>
       <c r="F4" s="7">
-        <v>10881.3841209</v>
+        <v>12787.7231196146</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G25" si="0">(F4-C4)/C4</f>
-        <v>2.44893316034865</v>
+        <v>3.05316105217578</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H25" si="1">(F4-E4)/E4</f>
-        <v>2.24526815416045</v>
+        <f t="shared" ref="H4:H26" si="1">(F4-E4)/E4</f>
+        <v>2.8138154248776</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>201217934924.788</v>
-      </c>
-      <c r="K4" s="12" t="s">
+        <v>236866189718.065</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="6"/>
@@ -1331,21 +1334,21 @@
         <v>101.03</v>
       </c>
       <c r="F5" s="7">
-        <v>378.013591284</v>
+        <v>395.000639356731</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>3.61386050633468</v>
+        <v>3.82119662341915</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="1"/>
-        <v>2.74159745901217</v>
+        <v>2.90973611161765</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>42578363660.2598</v>
+        <v>44672543192.5669</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>16</v>
@@ -1368,29 +1371,29 @@
         <v>0.175</v>
       </c>
       <c r="F6" s="7">
-        <v>0.249343971223</v>
+        <v>0.25617720842926</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0.0135933789552846</v>
+        <v>0.0413707659726017</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="1"/>
-        <v>0.424822692702857</v>
+        <v>0.463869762452914</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>11231035657.4903</v>
-      </c>
-      <c r="K6" s="12">
-        <v>6.76</v>
+        <v>11591522049.6271</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="17.6" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6">
         <v>43449</v>
@@ -1405,29 +1408,29 @@
         <v>101.06</v>
       </c>
       <c r="F7" s="7">
-        <v>233.289288999</v>
+        <v>265.133601978981</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>2.14618056640593</v>
+        <v>2.57563859715417</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="1"/>
-        <v>1.30842359983178</v>
+        <v>1.62352663743302</v>
       </c>
       <c r="I7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2">
-        <v>4320492845.27452</v>
+        <v>4918533220.35238</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="17.6" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6">
         <v>43448</v>
@@ -1442,30 +1445,30 @@
         <v>29.2</v>
       </c>
       <c r="F8" s="7">
-        <v>48.2853922271</v>
+        <v>55.6425513245898</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>1.05207786770506</v>
+        <v>1.36474931256225</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>0.65360932284589</v>
+        <v>0.905566826184583</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" s="2">
-        <v>3161514169.28762</v>
-      </c>
-      <c r="K8" s="13">
+        <v>3656493382.17208</v>
+      </c>
+      <c r="K8" s="11">
         <f>(K6-K4)/K4</f>
-        <v>-0.00137384958562932</v>
+        <v>-0.0171805836896992</v>
       </c>
     </row>
     <row r="9" ht="17.6" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6">
         <v>43441</v>
@@ -1480,26 +1483,26 @@
         <v>2.1481</v>
       </c>
       <c r="F9" s="7">
-        <v>2.72055918192</v>
+        <v>2.65015706356457</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0.781636661375246</v>
+        <v>0.735531803251192</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>0.266495592346725</v>
+        <v>0.233721457829975</v>
       </c>
       <c r="I9" s="1">
         <v>13</v>
       </c>
       <c r="J9" s="2">
-        <v>2546795192.27588</v>
+        <v>2483406860.02478</v>
       </c>
     </row>
     <row r="10" ht="17.6" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
         <v>43441</v>
@@ -1514,26 +1517,26 @@
         <v>0.0303</v>
       </c>
       <c r="F10" s="7">
-        <v>0.0924758266327</v>
+        <v>0.10657215653095</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>2.42503061602593</v>
+        <v>2.9471169085537</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>2.05200747962706</v>
+        <v>2.51723288881023</v>
       </c>
       <c r="I10" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
-        <v>2877152736.23604</v>
+        <v>3315724583.76029</v>
       </c>
     </row>
     <row r="11" ht="17.6" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6">
         <v>43504</v>
@@ -1548,26 +1551,26 @@
         <v>0.04213</v>
       </c>
       <c r="F11" s="7">
-        <v>0.0790692699109</v>
+        <v>0.08531228459583</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0.0891084009765841</v>
+        <v>0.175100338785537</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>0.876792544763826</v>
+        <v>1.02497708511346</v>
       </c>
       <c r="I11" s="1">
         <v>17</v>
       </c>
       <c r="J11" s="2">
-        <v>1636024879.14595</v>
+        <v>1778888682.35851</v>
       </c>
     </row>
     <row r="12" ht="17.6" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6">
         <v>43441</v>
@@ -1582,26 +1585,26 @@
         <v>3.36</v>
       </c>
       <c r="F12" s="9">
-        <v>5.14869180656</v>
+        <v>5.45064572845003</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0.603953833819315</v>
+        <v>0.698020476152657</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>0.532348751952381</v>
-      </c>
-      <c r="I12" s="14">
-        <v>31</v>
-      </c>
-      <c r="J12" s="14">
-        <v>598861329.555263</v>
+        <v>0.622215990610128</v>
+      </c>
+      <c r="I12" s="12">
+        <v>32</v>
+      </c>
+      <c r="J12" s="12">
+        <v>633982586.356281</v>
       </c>
     </row>
     <row r="13" ht="17.6" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6">
         <v>43442</v>
@@ -1616,26 +1619,26 @@
         <v>5.37</v>
       </c>
       <c r="F13" s="7">
-        <v>26.7569371356</v>
+        <v>30.804380246348</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>5.370699318</v>
+        <v>6.33437624913048</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>3.98266985765363</v>
+        <v>4.73638365853781</v>
       </c>
       <c r="I13" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="2">
-        <v>3863877247.88825</v>
+        <v>4448354612.03101</v>
       </c>
     </row>
     <row r="14" ht="17.6" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6">
         <v>43480</v>
@@ -1649,27 +1652,27 @@
       <c r="E14" s="1">
         <v>0.58</v>
       </c>
-      <c r="F14" s="10">
-        <v>6.19122616224</v>
+      <c r="F14" s="7">
+        <v>4.86000727462895</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>9.67452786593104</v>
+        <v>7.37932288729129</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>9.67452786593104</v>
-      </c>
-      <c r="I14" s="12">
-        <v>44</v>
-      </c>
-      <c r="J14" s="15">
-        <v>371473569.7344</v>
+        <v>7.37932288729129</v>
+      </c>
+      <c r="I14" s="1">
+        <v>52</v>
+      </c>
+      <c r="J14" s="2">
+        <v>291600436.477737</v>
       </c>
     </row>
     <row r="15" ht="17.6" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6">
         <v>43495</v>
@@ -1684,26 +1687,26 @@
         <v>0.88</v>
       </c>
       <c r="F15" s="7">
-        <v>4.8063440065</v>
+        <v>4.51220711688697</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>4.46175455284091</v>
+        <v>4.12750808737156</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>4.46175455284091</v>
+        <v>4.12750808737156</v>
       </c>
       <c r="I15" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" s="2">
-        <v>1003449796.61118</v>
+        <v>934203437.010106</v>
       </c>
     </row>
     <row r="16" ht="17.6" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6">
         <v>43505</v>
@@ -1718,26 +1721,26 @@
         <v>25.12</v>
       </c>
       <c r="F16" s="7">
-        <v>58.4119109075</v>
+        <v>64.0226196533661</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0.289446156898455</v>
+        <v>0.413302862105212</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>1.32531492466162</v>
+        <v>1.54867116454483</v>
       </c>
       <c r="I16" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
-        <v>587310224.782765</v>
+        <v>659304937.190364</v>
       </c>
     </row>
     <row r="17" ht="17.6" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6">
         <v>43441</v>
@@ -1752,26 +1755,26 @@
         <v>6.37</v>
       </c>
       <c r="F17" s="7">
-        <v>21.0576296022</v>
+        <v>18.3668429853695</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>2.88517151332103</v>
+        <v>2.38871641796486</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>2.3057503300157</v>
+        <v>1.88333484856664</v>
       </c>
       <c r="I17" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
-        <v>1485380575.77018</v>
+        <v>1295575633.34852</v>
       </c>
     </row>
     <row r="18" ht="17.6" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6">
         <v>43441</v>
@@ -1786,26 +1789,26 @@
         <v>1.33</v>
       </c>
       <c r="F18" s="7">
-        <v>2.42857269475</v>
+        <v>2.31099392483163</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0.674877720517241</v>
+        <v>0.593788913676986</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>0.825994507330827</v>
+        <v>0.737589417166639</v>
       </c>
       <c r="I18" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="2">
-        <v>235652723.173245</v>
+        <v>224917806.48896</v>
       </c>
     </row>
     <row r="19" ht="17.6" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6">
         <v>43451</v>
@@ -1820,26 +1823,26 @@
         <v>0.2726</v>
       </c>
       <c r="F19" s="7">
-        <v>0.642408406791</v>
+        <v>0.4250631617565</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0.427574237313333</v>
+        <v>-0.0554151960966667</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>1.35659723694424</v>
+        <v>0.559292596318782</v>
       </c>
       <c r="I19" s="1">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J19" s="2">
-        <v>41756546.441415</v>
+        <v>29754421.322955</v>
       </c>
     </row>
     <row r="20" ht="17.6" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6">
         <v>43449</v>
@@ -1853,27 +1856,27 @@
       <c r="E20" s="1">
         <v>0.0464</v>
       </c>
-      <c r="F20" s="10">
-        <v>0.106432133809</v>
+      <c r="F20" s="7">
+        <v>0.09599750546672</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0.125075410243129</v>
+        <v>0.0147727850604652</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>1.29379598726293</v>
-      </c>
-      <c r="I20" s="12">
-        <v>135</v>
-      </c>
-      <c r="J20" s="15">
-        <v>57950189.5013106</v>
+        <v>1.06891175574828</v>
+      </c>
+      <c r="I20" s="1">
+        <v>141</v>
+      </c>
+      <c r="J20" s="2">
+        <v>52268740.9747216</v>
       </c>
     </row>
     <row r="21" ht="17.6" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6">
         <v>43441</v>
@@ -1888,26 +1891,26 @@
         <v>0.1495</v>
       </c>
       <c r="F21" s="7">
-        <v>0.269546853315</v>
+        <v>0.28614775585783</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0.347734266575</v>
+        <v>0.43073877928915</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>0.802988985384615</v>
+        <v>0.91403181175806</v>
       </c>
       <c r="I21" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2">
-        <v>749213641.476401</v>
+        <v>795356352.819329</v>
       </c>
     </row>
     <row r="22" ht="17.6" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6">
         <v>43441</v>
@@ -1921,27 +1924,27 @@
       <c r="E22" s="1">
         <v>0.0941</v>
       </c>
-      <c r="F22" s="10">
-        <v>0.253372525626</v>
+      <c r="F22" s="7">
+        <v>0.18124003244669</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>1.78431346841758</v>
+        <v>0.991648708205385</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>1.69258794501594</v>
-      </c>
-      <c r="I22" s="12">
-        <v>151</v>
-      </c>
-      <c r="J22" s="15">
-        <v>47887407.343314</v>
+        <v>0.926036476585441</v>
+      </c>
+      <c r="I22" s="1">
+        <v>179</v>
+      </c>
+      <c r="J22" s="2">
+        <v>34254366.1324244</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6">
         <v>43450</v>
@@ -1956,26 +1959,26 @@
         <v>0.0894</v>
       </c>
       <c r="F23" s="7">
-        <v>0.423056590245</v>
+        <v>0.38070465673642</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>2.525471585375</v>
+        <v>2.17253880613683</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>3.73217662466443</v>
+        <v>3.25844135051924</v>
       </c>
       <c r="I23" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J23" s="2">
-        <v>84010121.813587</v>
+        <v>75627175.7879087</v>
       </c>
     </row>
     <row r="24" ht="17.6" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="6">
         <v>43448</v>
@@ -1989,27 +1992,27 @@
       <c r="E24" s="1">
         <v>0.00262</v>
       </c>
-      <c r="F24" s="10">
-        <v>0.0036821709861</v>
+      <c r="F24" s="7">
+        <v>0.00298675751005</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>-0.0310076352368421</v>
+        <v>-0.214011181565789</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>0.405408773320611</v>
-      </c>
-      <c r="I24" s="12">
-        <v>720</v>
-      </c>
-      <c r="J24" s="15">
-        <v>4418603.79909177</v>
+        <v>0.139983782461832</v>
+      </c>
+      <c r="I24" s="1">
+        <v>829</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3584107.88925661</v>
       </c>
     </row>
     <row r="25" ht="17.6" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="6">
         <v>43502</v>
@@ -2024,24 +2027,54 @@
         <v>0.007166</v>
       </c>
       <c r="F25" s="7">
-        <v>0.0111000475485</v>
+        <v>0.00931913168125</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>-0.576657225457666</v>
+        <v>-0.644579264635774</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>0.548987935877756</v>
+        <v>0.300464929005024</v>
       </c>
       <c r="I25" s="1">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="J25" s="2">
-        <v>16370065.7302096</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="1"/>
+        <v>13793925.1803716</v>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="1" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44126</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25.27</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25.7120233798562</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
+        <f t="shared" si="1"/>
+        <v>0.0174920213635223</v>
+      </c>
+      <c r="I26" s="13">
+        <v>35</v>
+      </c>
+      <c r="J26" s="13">
+        <v>470410081.262302</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
@@ -2059,7 +2092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D25">
+  <conditionalFormatting sqref="D4:D26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2080,12 +2113,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{315fade7-ddcd-46b2-b707-23749cc336c7}</x14:id>
+          <x14:id>{2b333368-2e48-4520-9fe8-13fc3de09f59}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G25">
+  <conditionalFormatting sqref="G4:G26">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -2094,7 +2127,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d1253afe-984f-4dbf-ae95-8ef154c863a8}</x14:id>
+          <x14:id>{cb37998c-a905-4ca3-93e6-382fa2938816}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2106,7 +2139,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4a938ad8-fa25-419b-b84c-2102282bcbef}</x14:id>
+          <x14:id>{47f96c32-fecd-4a2a-8ddc-457997bc98b9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2120,12 +2153,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b28d0f93-49ac-4b7d-95c6-84e36fc7f023}</x14:id>
+          <x14:id>{b76f67f9-9fbc-483b-a463-f7281b12bf91}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H25">
+  <conditionalFormatting sqref="H4:H26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2134,7 +2167,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c568035-91e4-4dc0-abb0-eb026770dd57}</x14:id>
+          <x14:id>{9189fe36-d5e0-4455-8119-b2fd0ccd62d8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2146,7 +2179,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{165faafa-36fb-4054-82fc-476bcd773b38}</x14:id>
+          <x14:id>{d9211907-4c23-486c-a14a-4354cb313779}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2160,7 +2193,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7e9a3f0-c395-497f-92ed-92ba16eba35d}</x14:id>
+          <x14:id>{0c719f49-bfe1-478e-91e1-cdc2000de0b1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2174,7 +2207,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adf2b841-d33f-4ee4-b129-bcb27a31718a}</x14:id>
+          <x14:id>{98808f00-ab17-41d9-a512-dc730708c830}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2182,14 +2215,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="K4" numberStoredAsText="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{315fade7-ddcd-46b2-b707-23749cc336c7}">
+          <x14:cfRule type="dataBar" id="{2b333368-2e48-4520-9fe8-13fc3de09f59}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2199,24 +2229,24 @@
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d1253afe-984f-4dbf-ae95-8ef154c863a8}">
+          <x14:cfRule type="dataBar" id="{cb37998c-a905-4ca3-93e6-382fa2938816}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4a938ad8-fa25-419b-b84c-2102282bcbef}">
+          <x14:cfRule type="dataBar" id="{47f96c32-fecd-4a2a-8ddc-457997bc98b9}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G4:G25</xm:sqref>
+          <xm:sqref>G4:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b28d0f93-49ac-4b7d-95c6-84e36fc7f023}">
+          <x14:cfRule type="dataBar" id="{b76f67f9-9fbc-483b-a463-f7281b12bf91}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2226,24 +2256,24 @@
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5c568035-91e4-4dc0-abb0-eb026770dd57}">
+          <x14:cfRule type="dataBar" id="{9189fe36-d5e0-4455-8119-b2fd0ccd62d8}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{165faafa-36fb-4054-82fc-476bcd773b38}">
+          <x14:cfRule type="dataBar" id="{d9211907-4c23-486c-a14a-4354cb313779}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H4:H25</xm:sqref>
+          <xm:sqref>H4:H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7e9a3f0-c395-497f-92ed-92ba16eba35d}">
+          <x14:cfRule type="dataBar" id="{0c719f49-bfe1-478e-91e1-cdc2000de0b1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2253,7 +2283,7 @@
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adf2b841-d33f-4ee4-b129-bcb27a31718a}">
+          <x14:cfRule type="dataBar" id="{98808f00-ab17-41d9-a512-dc730708c830}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13200" tabRatio="500"/>
+    <workbookView windowWidth="28060" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
-  <si>
-    <t>2020-10-22 08:00:00</t>
-  </si>
-  <si>
-    <t>贪婪 : 73</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+  <si>
+    <t>2020-11-13 08:00:00</t>
+  </si>
+  <si>
+    <t>BTC 开采成本</t>
+  </si>
+  <si>
+    <t>贪婪 : 89</t>
+  </si>
+  <si>
+    <t>$10,065.84</t>
   </si>
   <si>
     <t>Token</t>
@@ -58,7 +64,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.6645</t>
+    <t>6.6104</t>
   </si>
   <si>
     <t>ETH</t>
@@ -70,7 +76,7 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>6.55</t>
+    <t>6.51</t>
   </si>
   <si>
     <t>BCH</t>
@@ -144,13 +150,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,8 +190,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,85 +296,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,14 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,24 +340,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,25 +362,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,19 +488,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,55 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,72 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,8 +571,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,15 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,23 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,155 +650,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,13 +842,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1214,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8303571428571" defaultRowHeight="22" customHeight="1"/>
@@ -1226,61 +1254,68 @@
     <col min="4" max="4" width="17.8303571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.1607142857143" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.8303571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1607142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.8303571428571" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.6607142857143" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="12.8303571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8303571428571" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.8303571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" customHeight="1" spans="1:1">
+    <row r="1" ht="17.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:1">
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" customHeight="1" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="17.5" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" customHeight="1" spans="1:14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="17.5" customHeight="1" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>43449</v>
@@ -1295,31 +1330,31 @@
         <v>3353</v>
       </c>
       <c r="F4" s="7">
-        <v>12787.7231196146</v>
+        <v>16210.529321318</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G25" si="0">(F4-C4)/C4</f>
-        <v>3.05316105217578</v>
+        <v>4.13804415889634</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ref="H4:H26" si="1">(F4-E4)/E4</f>
-        <v>2.8138154248776</v>
+        <v>3.83463445312197</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>236866189718.065</v>
+        <v>300516758033.383</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" ht="17.6" customHeight="1" spans="1:11">
+    <row r="5" ht="17.5" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
         <v>43447</v>
@@ -1334,29 +1369,29 @@
         <v>101.03</v>
       </c>
       <c r="F5" s="7">
-        <v>395.000639356731</v>
+        <v>460.650508027195</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>3.82119662341915</v>
+        <v>4.62248880785054</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="1"/>
-        <v>2.90973611161765</v>
+        <v>3.55954179973468</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>44672543192.5669</v>
+        <v>52240765696.0734</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" customHeight="1" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="17.5" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6">
         <v>43326</v>
@@ -1371,29 +1406,29 @@
         <v>0.175</v>
       </c>
       <c r="F6" s="7">
-        <v>0.25617720842926</v>
+        <v>0.25564341998399</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0.0413707659726017</v>
+        <v>0.0392008942438617</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="1"/>
-        <v>0.463869762452914</v>
+        <v>0.460819542765657</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>11591522049.6271</v>
+        <v>11583839617.6004</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" customHeight="1" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="17.5" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6">
         <v>43449</v>
@@ -1408,29 +1443,29 @@
         <v>101.06</v>
       </c>
       <c r="F7" s="7">
-        <v>265.133601978981</v>
+        <v>252.408684441387</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>2.57563859715417</v>
+        <v>2.4040281111448</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="1"/>
-        <v>1.62352663743302</v>
+        <v>1.49761215556488</v>
       </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2">
-        <v>4918533220.35238</v>
+        <v>4687429619.46982</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" customHeight="1" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="17.5" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6">
         <v>43448</v>
@@ -1445,30 +1480,30 @@
         <v>29.2</v>
       </c>
       <c r="F8" s="7">
-        <v>55.6425513245898</v>
+        <v>62.3741899771237</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>1.36474931256225</v>
+        <v>1.65083680310768</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>0.905566826184583</v>
+        <v>1.13610239647684</v>
       </c>
       <c r="I8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="2">
-        <v>3656493382.17208</v>
-      </c>
-      <c r="K8" s="11">
+        <v>4108661807.19517</v>
+      </c>
+      <c r="K8" s="13">
         <f>(K6-K4)/K4</f>
-        <v>-0.0171805836896992</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" customHeight="1" spans="1:10">
+        <v>-0.0151881883093308</v>
+      </c>
+    </row>
+    <row r="9" ht="17.5" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6">
         <v>43441</v>
@@ -1483,26 +1518,26 @@
         <v>2.1481</v>
       </c>
       <c r="F9" s="7">
-        <v>2.65015706356457</v>
+        <v>2.47582326576689</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0.735531803251192</v>
+        <v>0.621364286684276</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>0.233721457829975</v>
+        <v>0.152564250159159</v>
       </c>
       <c r="I9" s="1">
         <v>13</v>
       </c>
       <c r="J9" s="2">
-        <v>2483406860.02478</v>
-      </c>
-    </row>
-    <row r="10" ht="17.6" customHeight="1" spans="1:10">
+        <v>2321636575.37337</v>
+      </c>
+    </row>
+    <row r="10" ht="17.5" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6">
         <v>43441</v>
@@ -1517,26 +1552,26 @@
         <v>0.0303</v>
       </c>
       <c r="F10" s="7">
-        <v>0.10657215653095</v>
+        <v>0.10599106374754</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>2.9471169085537</v>
+        <v>2.92559495361259</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>2.51723288881023</v>
+        <v>2.49805490915974</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <v>3315724583.76029</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" customHeight="1" spans="1:10">
+        <v>3297645343.45855</v>
+      </c>
+    </row>
+    <row r="11" ht="17.5" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6">
         <v>43504</v>
@@ -1551,26 +1586,26 @@
         <v>0.04213</v>
       </c>
       <c r="F11" s="7">
-        <v>0.08531228459583</v>
+        <v>0.08043517310463</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0.175100338785537</v>
+        <v>0.107922494554132</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>1.02497708511346</v>
+        <v>0.909213698187277</v>
       </c>
       <c r="I11" s="1">
         <v>17</v>
       </c>
       <c r="J11" s="2">
-        <v>1778888682.35851</v>
-      </c>
-    </row>
-    <row r="12" ht="17.6" customHeight="1" spans="1:10">
+        <v>1684665207.27742</v>
+      </c>
+    </row>
+    <row r="12" ht="17.5" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6">
         <v>43441</v>
@@ -1585,26 +1620,26 @@
         <v>3.36</v>
       </c>
       <c r="F12" s="9">
-        <v>5.45064572845003</v>
+        <v>5.05201556649027</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0.698020476152657</v>
+        <v>0.57383662507485</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>0.622215990610128</v>
-      </c>
-      <c r="I12" s="12">
-        <v>32</v>
-      </c>
-      <c r="J12" s="12">
-        <v>633982586.356281</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" customHeight="1" spans="1:10">
+        <v>0.503576061455437</v>
+      </c>
+      <c r="I12" s="14">
+        <v>35</v>
+      </c>
+      <c r="J12" s="14">
+        <v>587616597.137837</v>
+      </c>
+    </row>
+    <row r="13" ht="17.5" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6">
         <v>43442</v>
@@ -1619,26 +1654,26 @@
         <v>5.37</v>
       </c>
       <c r="F13" s="7">
-        <v>30.804380246348</v>
+        <v>28.135270977975</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>6.33437624913048</v>
+        <v>5.698874042375</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>4.73638365853781</v>
+        <v>4.23934282643854</v>
       </c>
       <c r="I13" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2">
-        <v>4448354612.03101</v>
-      </c>
-    </row>
-    <row r="14" ht="17.6" customHeight="1" spans="1:10">
+        <v>4062917721.91895</v>
+      </c>
+    </row>
+    <row r="14" ht="17.5" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
         <v>43480</v>
@@ -1653,26 +1688,26 @@
         <v>0.58</v>
       </c>
       <c r="F14" s="7">
-        <v>4.86000727462895</v>
+        <v>4.87691654058302</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>7.37932288729129</v>
+        <v>7.40847679410865</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>7.37932288729129</v>
+        <v>7.40847679410865</v>
       </c>
       <c r="I14" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="2">
-        <v>291600436.477737</v>
-      </c>
-    </row>
-    <row r="15" ht="17.6" customHeight="1" spans="1:10">
+        <v>292614992.434981</v>
+      </c>
+    </row>
+    <row r="15" ht="17.5" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6">
         <v>43495</v>
@@ -1687,26 +1722,26 @@
         <v>0.88</v>
       </c>
       <c r="F15" s="7">
-        <v>4.51220711688697</v>
+        <v>3.64536888384298</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>4.12750808737156</v>
+        <v>3.14246464073066</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>4.12750808737156</v>
+        <v>3.14246464073066</v>
       </c>
       <c r="I15" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>934203437.010106</v>
-      </c>
-    </row>
-    <row r="16" ht="17.6" customHeight="1" spans="1:10">
+        <v>754734003.167348</v>
+      </c>
+    </row>
+    <row r="16" ht="17.5" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6">
         <v>43505</v>
@@ -1721,26 +1756,26 @@
         <v>25.12</v>
       </c>
       <c r="F16" s="7">
-        <v>64.0226196533661</v>
+        <v>62.2745288303736</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0.413302862105212</v>
+        <v>0.37471366071465</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>1.54867116454483</v>
+        <v>1.4790815617187</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2">
-        <v>659304937.190364</v>
-      </c>
-    </row>
-    <row r="17" ht="17.6" customHeight="1" spans="1:10">
+        <v>651566329.462239</v>
+      </c>
+    </row>
+    <row r="17" ht="17.5" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6">
         <v>43441</v>
@@ -1755,26 +1790,26 @@
         <v>6.37</v>
       </c>
       <c r="F17" s="7">
-        <v>18.3668429853695</v>
+        <v>15.5510979029671</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>2.38871641796486</v>
+        <v>1.86920625515999</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>1.88333484856664</v>
+        <v>1.44130265352702</v>
       </c>
       <c r="I17" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2">
-        <v>1295575633.34852</v>
-      </c>
-    </row>
-    <row r="18" ht="17.6" customHeight="1" spans="1:10">
+        <v>1096956266.84185</v>
+      </c>
+    </row>
+    <row r="18" ht="17.5" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6">
         <v>43441</v>
@@ -1789,26 +1824,26 @@
         <v>1.33</v>
       </c>
       <c r="F18" s="7">
-        <v>2.31099392483163</v>
+        <v>2.02738154490549</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0.593788913676986</v>
+        <v>0.398194168900338</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>0.737589417166639</v>
+        <v>0.524347026244729</v>
       </c>
       <c r="I18" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J18" s="2">
-        <v>224917806.48896</v>
-      </c>
-    </row>
-    <row r="19" ht="17.6" customHeight="1" spans="1:10">
+        <v>197441084.287595</v>
+      </c>
+    </row>
+    <row r="19" ht="17.5" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6">
         <v>43451</v>
@@ -1823,26 +1858,26 @@
         <v>0.2726</v>
       </c>
       <c r="F19" s="7">
-        <v>0.4250631617565</v>
+        <v>0.36621755637556</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>-0.0554151960966667</v>
+        <v>-0.186183208054311</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>0.559292596318782</v>
+        <v>0.343424638208217</v>
       </c>
       <c r="I19" s="1">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="J19" s="2">
-        <v>29754421.322955</v>
-      </c>
-    </row>
-    <row r="20" ht="17.6" customHeight="1" spans="1:10">
+        <v>25635228.9462892</v>
+      </c>
+    </row>
+    <row r="20" ht="17.5" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6">
         <v>43449</v>
@@ -1857,26 +1892,26 @@
         <v>0.0464</v>
       </c>
       <c r="F20" s="7">
-        <v>0.09599750546672</v>
+        <v>0.09594115353029</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0.0147727850604652</v>
+        <v>0.0141770986288582</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>1.06891175574828</v>
+        <v>1.0676972743597</v>
       </c>
       <c r="I20" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="2">
-        <v>52268740.9747216</v>
-      </c>
-    </row>
-    <row r="21" ht="17.6" customHeight="1" spans="1:10">
+        <v>52238058.4611045</v>
+      </c>
+    </row>
+    <row r="21" ht="17.5" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6">
         <v>43441</v>
@@ -1891,26 +1926,26 @@
         <v>0.1495</v>
       </c>
       <c r="F21" s="7">
-        <v>0.28614775585783</v>
+        <v>0.24787260227659</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0.43073877928915</v>
+        <v>0.23936301138295</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>0.91403181175806</v>
+        <v>0.658010717569164</v>
       </c>
       <c r="I21" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2">
-        <v>795356352.819329</v>
-      </c>
-    </row>
-    <row r="22" ht="17.6" customHeight="1" spans="1:10">
+        <v>688969404.353797</v>
+      </c>
+    </row>
+    <row r="22" ht="17.5" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6">
         <v>43441</v>
@@ -1925,26 +1960,26 @@
         <v>0.0941</v>
       </c>
       <c r="F22" s="7">
-        <v>0.18124003244669</v>
+        <v>0.18150604139671</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0.991648708205385</v>
+        <v>0.99457188348033</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>0.926036476585441</v>
+        <v>0.928863351718491</v>
       </c>
       <c r="I22" s="1">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J22" s="2">
-        <v>34254366.1324244</v>
-      </c>
-    </row>
-    <row r="23" ht="17.6" customHeight="1" spans="1:10">
+        <v>34304641.8239782</v>
+      </c>
+    </row>
+    <row r="23" ht="17.5" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6">
         <v>43450</v>
@@ -1959,26 +1994,26 @@
         <v>0.0894</v>
       </c>
       <c r="F23" s="7">
-        <v>0.38070465673642</v>
+        <v>0.35074784525714</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>2.17253880613683</v>
+        <v>1.92289871047617</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>3.25844135051924</v>
+        <v>2.92335397379351</v>
       </c>
       <c r="I23" s="1">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J23" s="2">
-        <v>75627175.7879087</v>
-      </c>
-    </row>
-    <row r="24" ht="17.6" customHeight="1" spans="1:10">
+        <v>70042913.6394288</v>
+      </c>
+    </row>
+    <row r="24" ht="17.5" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6">
         <v>43448</v>
@@ -1993,26 +2028,26 @@
         <v>0.00262</v>
       </c>
       <c r="F24" s="7">
-        <v>0.00298675751005</v>
+        <v>0.00258305649453</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>-0.214011181565789</v>
+        <v>-0.320248290913158</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>0.139983782461832</v>
+        <v>-0.0141005746068702</v>
       </c>
       <c r="I24" s="1">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="J24" s="2">
-        <v>3584107.88925661</v>
-      </c>
-    </row>
-    <row r="25" ht="17.6" customHeight="1" spans="1:10">
+        <v>3099666.82239481</v>
+      </c>
+    </row>
+    <row r="25" ht="17.5" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6">
         <v>43502</v>
@@ -2027,58 +2062,58 @@
         <v>0.007166</v>
       </c>
       <c r="F25" s="7">
-        <v>0.00931913168125</v>
+        <v>0.00759935600046</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>-0.644579264635774</v>
+        <v>-0.710169488922197</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>0.300464929005024</v>
+        <v>0.0604739046134525</v>
       </c>
       <c r="I25" s="1">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="J25" s="2">
-        <v>13793925.1803716</v>
+        <v>11285204.2329859</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6">
-        <v>44126</v>
+        <v>44128</v>
       </c>
       <c r="E26" s="1">
-        <v>25.27</v>
-      </c>
-      <c r="F26" s="1">
-        <v>25.7120233798562</v>
+        <v>20.92</v>
+      </c>
+      <c r="F26" s="7">
+        <v>29.3932302802326</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8">
         <f t="shared" si="1"/>
-        <v>0.0174920213635223</v>
-      </c>
-      <c r="I26" s="13">
-        <v>35</v>
-      </c>
-      <c r="J26" s="13">
-        <v>470410081.262302</v>
+        <v>0.405030128118192</v>
+      </c>
+      <c r="I26" s="14">
+        <v>25</v>
+      </c>
+      <c r="J26" s="14">
+        <v>983837447.278003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B25">
     <cfRule type="colorScale" priority="24">
@@ -2113,7 +2148,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b333368-2e48-4520-9fe8-13fc3de09f59}</x14:id>
+          <x14:id>{2eea3d6f-2a77-4920-97c4-9a22d27ee171}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2127,7 +2162,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb37998c-a905-4ca3-93e6-382fa2938816}</x14:id>
+          <x14:id>{c5b5bf62-24ea-4688-8294-fde1c9f7ac6d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2139,7 +2174,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47f96c32-fecd-4a2a-8ddc-457997bc98b9}</x14:id>
+          <x14:id>{28606e33-e0a6-45d7-86a4-8a3a119be505}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2153,7 +2188,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b76f67f9-9fbc-483b-a463-f7281b12bf91}</x14:id>
+          <x14:id>{1d666e7a-cc6d-4d41-b3d6-4ae4da451405}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2167,7 +2202,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9189fe36-d5e0-4455-8119-b2fd0ccd62d8}</x14:id>
+          <x14:id>{52fa4c14-e8a8-4814-ad5f-cc140c42c379}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2179,7 +2214,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9211907-4c23-486c-a14a-4354cb313779}</x14:id>
+          <x14:id>{eddb0971-ee74-4368-ab7f-185c4e3a6c69}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2193,7 +2228,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0c719f49-bfe1-478e-91e1-cdc2000de0b1}</x14:id>
+          <x14:id>{cf914f2d-86ed-4bd1-8a56-477cefc8b3ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2207,7 +2242,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98808f00-ab17-41d9-a512-dc730708c830}</x14:id>
+          <x14:id>{0d115d70-9e58-4f92-b040-cf7c8909fcf1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2219,7 +2254,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b333368-2e48-4520-9fe8-13fc3de09f59}">
+          <x14:cfRule type="dataBar" id="{2eea3d6f-2a77-4920-97c4-9a22d27ee171}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2229,14 +2264,14 @@
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb37998c-a905-4ca3-93e6-382fa2938816}">
+          <x14:cfRule type="dataBar" id="{c5b5bf62-24ea-4688-8294-fde1c9f7ac6d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{47f96c32-fecd-4a2a-8ddc-457997bc98b9}">
+          <x14:cfRule type="dataBar" id="{28606e33-e0a6-45d7-86a4-8a3a119be505}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2246,7 +2281,7 @@
           <xm:sqref>G4:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b76f67f9-9fbc-483b-a463-f7281b12bf91}">
+          <x14:cfRule type="dataBar" id="{1d666e7a-cc6d-4d41-b3d6-4ae4da451405}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2256,14 +2291,14 @@
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9189fe36-d5e0-4455-8119-b2fd0ccd62d8}">
+          <x14:cfRule type="dataBar" id="{52fa4c14-e8a8-4814-ad5f-cc140c42c379}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d9211907-4c23-486c-a14a-4354cb313779}">
+          <x14:cfRule type="dataBar" id="{eddb0971-ee74-4368-ab7f-185c4e3a6c69}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2273,7 +2308,7 @@
           <xm:sqref>H4:H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0c719f49-bfe1-478e-91e1-cdc2000de0b1}">
+          <x14:cfRule type="dataBar" id="{cf914f2d-86ed-4bd1-8a56-477cefc8b3ad}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2283,7 +2318,7 @@
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98808f00-ab17-41d9-a512-dc730708c830}">
+          <x14:cfRule type="dataBar" id="{0d115d70-9e58-4f92-b040-cf7c8909fcf1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28060" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
-    <t>2020-11-19 08:00:00</t>
+    <t>2020-11-23 08:00:00</t>
   </si>
   <si>
     <t>BTC 开采成本</t>
   </si>
   <si>
-    <t>贪婪 : 94</t>
+    <t>贪婪 : 90</t>
   </si>
   <si>
     <t>$10,065.84</t>
@@ -46,10 +46,12 @@
     <t>当前价格</t>
   </si>
   <si>
-    <t>涨幅(相对 C 列)</t>
-  </si>
-  <si>
-    <t>涨幅(相对 E 列)</t>
+    <t>涨幅(相对 
+低点价格 18-19年）</t>
+  </si>
+  <si>
+    <t>涨幅（相对  
+低点价格18-20年）</t>
   </si>
   <si>
     <t>市值排名</t>
@@ -64,7 +66,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.5757</t>
+    <t>6.5571</t>
   </si>
   <si>
     <t>ETH</t>
@@ -76,7 +78,7 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>6.49</t>
+    <t>6.46</t>
   </si>
   <si>
     <t>BCH</t>
@@ -151,10 +153,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -226,6 +228,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -234,22 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -258,54 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,21 +337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -380,13 +382,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,19 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,139 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,15 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -606,6 +599,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +633,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,156 +667,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
@@ -813,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,6 +834,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,19 +1248,18 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8303571428571" defaultRowHeight="22" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.8303571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8303571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1607142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.8303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.0714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1964285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.1607142857143" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.8303571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1607142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8035714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1339285714286" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.8303571428571" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.6607142857143" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.8303571428571" style="1" customWidth="1"/>
@@ -1266,7 +1270,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1274,11 +1278,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="17.5" customHeight="1" spans="1:11">
+    <row r="3" ht="40" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1297,16 +1301,16 @@
       <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -1329,22 +1333,22 @@
       <c r="E4" s="1">
         <v>3353</v>
       </c>
-      <c r="F4" s="7">
-        <v>17810.1316133808</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8">
+        <v>18292.2720270803</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G25" si="0">(F4-C4)/C4</f>
-        <v>4.64504963974035</v>
-      </c>
-      <c r="H4" s="8">
+        <v>4.79786752046919</v>
+      </c>
+      <c r="H4" s="9">
         <f t="shared" ref="H4:H26" si="1">(F4-E4)/E4</f>
-        <v>4.31170045135127</v>
+        <v>4.455494192389</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>330335517694.711</v>
+        <v>339350913737.583</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>16</v>
@@ -1368,22 +1372,22 @@
       <c r="E5" s="1">
         <v>101.03</v>
       </c>
-      <c r="F5" s="7">
-        <v>475.111481527371</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="8">
+        <v>563.49546052703</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>4.79899281737301</v>
-      </c>
-      <c r="H5" s="8">
+        <v>5.87776712470438</v>
+      </c>
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
-        <v>3.70267723970475</v>
+        <v>4.57750629047837</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>53918743839.6068</v>
+        <v>63978478720.7744</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>18</v>
@@ -1405,22 +1409,22 @@
       <c r="E6" s="1">
         <v>0.175</v>
       </c>
-      <c r="F6" s="7">
-        <v>0.2911329667955</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="8">
+        <v>0.45333861820734</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>0.183467344697154</v>
-      </c>
-      <c r="H6" s="8">
+        <v>0.842839911411951</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>0.663616953117143</v>
+        <v>1.59050638975623</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>13196520280.3256</v>
+        <v>20549003209.3488</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>20</v>
@@ -1442,22 +1446,22 @@
       <c r="E7" s="1">
         <v>101.06</v>
       </c>
-      <c r="F7" s="7">
-        <v>247.436680656687</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="8">
+        <v>288.030595755242</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>2.33697478970583</v>
-      </c>
-      <c r="H7" s="8">
+        <v>2.88443150040785</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>1.44841362217185</v>
+        <v>1.85009495107107</v>
       </c>
       <c r="I7" s="1">
         <v>7</v>
       </c>
       <c r="J7" s="2">
-        <v>4596382233.39937</v>
+        <v>5351586866.83771</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>22</v>
@@ -1479,26 +1483,26 @@
       <c r="E8" s="1">
         <v>29.2</v>
       </c>
-      <c r="F8" s="7">
-        <v>73.7620891357909</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="8">
+        <v>82.8289826683065</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>2.13481041801066</v>
-      </c>
-      <c r="H8" s="8">
+        <v>2.52014375980903</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
-        <v>1.52609894300654</v>
+        <v>1.83660899548995</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
       </c>
       <c r="J8" s="2">
-        <v>4861902525.41341</v>
-      </c>
-      <c r="K8" s="13">
+        <v>5460771044.29074</v>
+      </c>
+      <c r="K8" s="14">
         <f>(K6-K4)/K4</f>
-        <v>-0.013032833006372</v>
+        <v>-0.0148083756538714</v>
       </c>
     </row>
     <row r="9" ht="17.5" customHeight="1" spans="1:10">
@@ -1517,22 +1521,22 @@
       <c r="E9" s="1">
         <v>2.1481</v>
       </c>
-      <c r="F9" s="7">
-        <v>2.60421127871261</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="8">
+        <v>3.04790757722957</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>0.705442880623844</v>
-      </c>
-      <c r="H9" s="8">
+        <v>0.996010201198147</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
-        <v>0.212332423403291</v>
+        <v>0.418885329933229</v>
       </c>
       <c r="I9" s="1">
         <v>13</v>
       </c>
       <c r="J9" s="2">
-        <v>2442461265.80057</v>
+        <v>2858926095.52922</v>
       </c>
     </row>
     <row r="10" ht="17.5" customHeight="1" spans="1:10">
@@ -1551,22 +1555,22 @@
       <c r="E10" s="1">
         <v>0.0303</v>
       </c>
-      <c r="F10" s="7">
-        <v>0.10615808342093</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="8">
+        <v>0.14890740877839</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>2.93178086744185</v>
-      </c>
-      <c r="H10" s="8">
+        <v>4.51508921401444</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
-        <v>2.50356710960165</v>
+        <v>3.9144359332802</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="2">
-        <v>3302841740.48247</v>
+        <v>4632879469.2933</v>
       </c>
     </row>
     <row r="11" ht="17.5" customHeight="1" spans="1:10">
@@ -1585,22 +1589,22 @@
       <c r="E11" s="1">
         <v>0.04213</v>
       </c>
-      <c r="F11" s="7">
-        <v>0.08300315153799</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="8">
+        <v>0.10473448560627</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>0.143294098319421</v>
-      </c>
-      <c r="H11" s="8">
+        <v>0.442623768681405</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
-        <v>0.970167375694042</v>
+        <v>1.48598351783219</v>
       </c>
       <c r="I11" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="2">
-        <v>1740608001.84195</v>
+        <v>2201743057.22713</v>
       </c>
     </row>
     <row r="12" ht="17.5" customHeight="1" spans="1:10">
@@ -1619,22 +1623,22 @@
       <c r="E12" s="1">
         <v>3.36</v>
       </c>
-      <c r="F12" s="9">
-        <v>5.88820144748515</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="10">
+        <v>6.0636866249343</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>0.834330668998489</v>
-      </c>
-      <c r="H12" s="8">
+        <v>0.888998948577664</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
-        <v>0.752440906989628</v>
-      </c>
-      <c r="I12" s="14">
-        <v>34</v>
-      </c>
-      <c r="J12" s="14">
-        <v>684876135.533573</v>
+        <v>0.804668638373304</v>
+      </c>
+      <c r="I12" s="15">
+        <v>35</v>
+      </c>
+      <c r="J12" s="15">
+        <v>705287395.448284</v>
       </c>
     </row>
     <row r="13" ht="17.5" customHeight="1" spans="1:10">
@@ -1653,22 +1657,22 @@
       <c r="E13" s="1">
         <v>5.37</v>
       </c>
-      <c r="F13" s="7">
-        <v>27.9528066266422</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="8">
+        <v>30.595623607506</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>5.65543014920052</v>
-      </c>
-      <c r="H13" s="8">
+        <v>6.28467228750143</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
-        <v>4.2053643625032</v>
+        <v>4.6975090516771</v>
       </c>
       <c r="I13" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
-        <v>4036568672.45613</v>
+        <v>4418208783.7508</v>
       </c>
     </row>
     <row r="14" ht="17.5" customHeight="1" spans="1:10">
@@ -1687,22 +1691,22 @@
       <c r="E14" s="1">
         <v>0.58</v>
       </c>
-      <c r="F14" s="7">
-        <v>5.67460907220583</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="8">
+        <v>6.20125566217424</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>8.78380874518247</v>
-      </c>
-      <c r="H14" s="8">
+        <v>9.69182010719697</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
-        <v>8.78380874518247</v>
+        <v>9.69182010719697</v>
       </c>
       <c r="I14" s="1">
         <v>47</v>
       </c>
       <c r="J14" s="2">
-        <v>340476544.33235</v>
+        <v>372075339.730454</v>
       </c>
     </row>
     <row r="15" ht="17.5" customHeight="1" spans="1:10">
@@ -1721,22 +1725,22 @@
       <c r="E15" s="1">
         <v>0.88</v>
       </c>
-      <c r="F15" s="7">
-        <v>3.86136001225294</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="8">
+        <v>4.21994951086724</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>3.38790910483289</v>
-      </c>
-      <c r="H15" s="8">
+        <v>3.79539717144004</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
-        <v>3.38790910483289</v>
+        <v>3.79539717144004</v>
       </c>
       <c r="I15" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2">
-        <v>790851910.194643</v>
+        <v>864295253.745869</v>
       </c>
     </row>
     <row r="16" ht="17.5" customHeight="1" spans="1:10">
@@ -1755,22 +1759,22 @@
       <c r="E16" s="1">
         <v>25.12</v>
       </c>
-      <c r="F16" s="7">
-        <v>61.8776543414083</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="8">
+        <v>68.8324930361905</v>
+      </c>
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>0.365952634468175</v>
-      </c>
-      <c r="H16" s="8">
+        <v>0.519481082476611</v>
+      </c>
+      <c r="H16" s="9">
         <f t="shared" si="1"/>
-        <v>1.46328241804969</v>
+        <v>1.74014701577191</v>
       </c>
       <c r="I16" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2">
-        <v>650037521.122702</v>
+        <v>724992429.605365</v>
       </c>
     </row>
     <row r="17" ht="17.5" customHeight="1" spans="1:10">
@@ -1789,22 +1793,22 @@
       <c r="E17" s="1">
         <v>6.37</v>
       </c>
-      <c r="F17" s="7">
-        <v>15.7164771865898</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="8">
+        <v>17.2616504639043</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
-        <v>1.89971903811621</v>
-      </c>
-      <c r="H17" s="8">
+        <v>2.18480635865394</v>
+      </c>
+      <c r="H17" s="9">
         <f t="shared" si="1"/>
-        <v>1.4672648644568</v>
+        <v>1.70983523766159</v>
       </c>
       <c r="I17" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2">
-        <v>1108621928.18022</v>
+        <v>1217616644.85442</v>
       </c>
     </row>
     <row r="18" ht="17.5" customHeight="1" spans="1:10">
@@ -1823,22 +1827,22 @@
       <c r="E18" s="1">
         <v>1.33</v>
       </c>
-      <c r="F18" s="7">
-        <v>2.12171194628778</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="8">
+        <v>2.5351062355417</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
-        <v>0.463249618129503</v>
-      </c>
-      <c r="H18" s="8">
+        <v>0.748349127959793</v>
+      </c>
+      <c r="H18" s="9">
         <f t="shared" si="1"/>
-        <v>0.595272140066</v>
+        <v>0.906094913941128</v>
       </c>
       <c r="I18" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2">
-        <v>206661566.27387</v>
+        <v>246953702.240966</v>
       </c>
     </row>
     <row r="19" ht="17.5" customHeight="1" spans="1:10">
@@ -1857,22 +1861,22 @@
       <c r="E19" s="1">
         <v>0.2726</v>
       </c>
-      <c r="F19" s="7">
-        <v>0.36339369441391</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="8">
+        <v>0.3759862506444</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
-        <v>-0.192458456857978</v>
-      </c>
-      <c r="H19" s="8">
+        <v>-0.164474998568</v>
+      </c>
+      <c r="H19" s="9">
         <f t="shared" si="1"/>
-        <v>0.333065643484629</v>
+        <v>0.37925990698606</v>
       </c>
       <c r="I19" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J19" s="2">
-        <v>25437558.6089737</v>
+        <v>26319037.545108</v>
       </c>
     </row>
     <row r="20" ht="17.5" customHeight="1" spans="1:10">
@@ -1891,22 +1895,22 @@
       <c r="E20" s="1">
         <v>0.0464</v>
       </c>
-      <c r="F20" s="7">
-        <v>0.09153700196469</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="8">
+        <v>0.10286118119398</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
-        <v>-0.0323784147495772</v>
-      </c>
-      <c r="H20" s="8">
+        <v>0.0873274967651162</v>
+      </c>
+      <c r="H20" s="9">
         <f t="shared" si="1"/>
-        <v>0.97278021475625</v>
+        <v>1.2168358015944</v>
       </c>
       <c r="I20" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J20" s="2">
-        <v>49840085.1358959</v>
+        <v>56005876.5073423</v>
       </c>
     </row>
     <row r="21" ht="17.5" customHeight="1" spans="1:10">
@@ -1925,22 +1929,22 @@
       <c r="E21" s="1">
         <v>0.1495</v>
       </c>
-      <c r="F21" s="7">
-        <v>0.25417146967246</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="8">
+        <v>0.32697336114853</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
-        <v>0.2708573483623</v>
-      </c>
-      <c r="H21" s="8">
+        <v>0.63486680574265</v>
+      </c>
+      <c r="H21" s="9">
         <f t="shared" si="1"/>
-        <v>0.700143609849231</v>
+        <v>1.18711278360221</v>
       </c>
       <c r="I21" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2">
-        <v>706477297.029219</v>
+        <v>908832359.046635</v>
       </c>
     </row>
     <row r="22" ht="17.5" customHeight="1" spans="1:10">
@@ -1959,22 +1963,22 @@
       <c r="E22" s="1">
         <v>0.0941</v>
       </c>
-      <c r="F22" s="7">
-        <v>0.17982251334121</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="8">
+        <v>0.18637362529952</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="0"/>
-        <v>0.976071575178132</v>
-      </c>
-      <c r="H22" s="8">
+        <v>1.04806181647824</v>
+      </c>
+      <c r="H22" s="9">
         <f t="shared" si="1"/>
-        <v>0.91097251159628</v>
+        <v>0.980591129644208</v>
       </c>
       <c r="I22" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J22" s="2">
-        <v>33986455.0214887</v>
+        <v>35224615.1816093</v>
       </c>
     </row>
     <row r="23" ht="17.5" customHeight="1" spans="1:10">
@@ -1993,22 +1997,22 @@
       <c r="E23" s="1">
         <v>0.0894</v>
       </c>
-      <c r="F23" s="7">
-        <v>0.32209950999507</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="8">
+        <v>0.34352360133505</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="0"/>
-        <v>1.68416258329225</v>
-      </c>
-      <c r="H23" s="8">
+        <v>1.86269667779208</v>
+      </c>
+      <c r="H23" s="9">
         <f t="shared" si="1"/>
-        <v>2.60290279636544</v>
+        <v>2.84254587623098</v>
       </c>
       <c r="I23" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J23" s="2">
-        <v>64321957.9733905</v>
+        <v>68600261.6032512</v>
       </c>
     </row>
     <row r="24" ht="17.5" customHeight="1" spans="1:10">
@@ -2027,22 +2031,22 @@
       <c r="E24" s="1">
         <v>0.00262</v>
       </c>
-      <c r="F24" s="7">
-        <v>0.00274067772766</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="8">
+        <v>0.00282648086532</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>-0.278769019036842</v>
-      </c>
-      <c r="H24" s="8">
+        <v>-0.256189245968421</v>
+      </c>
+      <c r="H24" s="9">
         <f t="shared" si="1"/>
-        <v>0.0460602013969466</v>
+        <v>0.0788094905801526</v>
       </c>
       <c r="I24" s="1">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="J24" s="2">
-        <v>3288812.2428967</v>
+        <v>3391775.97583296</v>
       </c>
     </row>
     <row r="25" ht="17.5" customHeight="1" spans="1:10">
@@ -2061,22 +2065,22 @@
       <c r="E25" s="1">
         <v>0.007166</v>
       </c>
-      <c r="F25" s="7">
-        <v>0.00736388652754</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="8">
+        <v>0.0086718021864</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="0"/>
-        <v>-0.71915001801907</v>
-      </c>
-      <c r="H25" s="8">
+        <v>-0.669267651167048</v>
+      </c>
+      <c r="H25" s="9">
         <f t="shared" si="1"/>
-        <v>0.0276146424141781</v>
+        <v>0.210131480100475</v>
       </c>
       <c r="I25" s="1">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="J25" s="2">
-        <v>10944197.3008364</v>
+        <v>12894882.5497598</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:10">
@@ -2095,19 +2099,19 @@
       <c r="E26" s="1">
         <v>20.92</v>
       </c>
-      <c r="F26" s="7">
-        <v>28.7477492661502</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8">
+      <c r="F26" s="8">
+        <v>29.2154088944069</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
         <f t="shared" si="1"/>
-        <v>0.374175395131463</v>
-      </c>
-      <c r="I26" s="14">
+        <v>0.396530061874137</v>
+      </c>
+      <c r="I26" s="15">
         <v>23</v>
       </c>
-      <c r="J26" s="14">
-        <v>1062938139.89016</v>
+      <c r="J26" s="15">
+        <v>1147933160.97244</v>
       </c>
     </row>
   </sheetData>
@@ -2148,7 +2152,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18d26553-885f-4779-af86-8ca4ed716668}</x14:id>
+          <x14:id>{0d28404a-8eab-4102-ae8a-0e84e026cb8b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2162,7 +2166,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{979abf53-94d3-4ca7-8f25-a1cc985f6628}</x14:id>
+          <x14:id>{b906a706-dbb6-4dd2-b4fc-aeb441643440}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2174,7 +2178,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e876b56e-cd94-490a-93a9-fd4702ccae81}</x14:id>
+          <x14:id>{8dbfe127-8d68-4356-a751-b347020cc6a1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2188,7 +2192,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7ab3ce66-d3d5-4295-9dfd-1a9df392f2f8}</x14:id>
+          <x14:id>{e101b293-2ba3-4d65-8c94-2eb56deec090}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2202,7 +2206,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb097f20-4b62-48f7-8488-a9d87816bc15}</x14:id>
+          <x14:id>{5aa1576c-95c9-43d8-b9da-c78769388931}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2214,7 +2218,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{646112dc-6e20-4627-8431-f81b9f569535}</x14:id>
+          <x14:id>{6e121f08-14e0-4a1f-a4b6-590f378c27b2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2228,7 +2232,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fb79a9e-b365-4bd4-970a-2b26f0ac3686}</x14:id>
+          <x14:id>{e1e866ce-c60f-4713-b057-e49696495af6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2242,7 +2246,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32f30fa7-57f2-4446-9e7e-cdc1af8e4bab}</x14:id>
+          <x14:id>{0b1d2701-8165-43fe-9d5f-f28ecf15f4d4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2254,7 +2258,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18d26553-885f-4779-af86-8ca4ed716668}">
+          <x14:cfRule type="dataBar" id="{0d28404a-8eab-4102-ae8a-0e84e026cb8b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2264,14 +2268,14 @@
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{979abf53-94d3-4ca7-8f25-a1cc985f6628}">
+          <x14:cfRule type="dataBar" id="{b906a706-dbb6-4dd2-b4fc-aeb441643440}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e876b56e-cd94-490a-93a9-fd4702ccae81}">
+          <x14:cfRule type="dataBar" id="{8dbfe127-8d68-4356-a751-b347020cc6a1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2281,7 +2285,7 @@
           <xm:sqref>G4:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7ab3ce66-d3d5-4295-9dfd-1a9df392f2f8}">
+          <x14:cfRule type="dataBar" id="{e101b293-2ba3-4d65-8c94-2eb56deec090}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2291,14 +2295,14 @@
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fb097f20-4b62-48f7-8488-a9d87816bc15}">
+          <x14:cfRule type="dataBar" id="{5aa1576c-95c9-43d8-b9da-c78769388931}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{646112dc-6e20-4627-8431-f81b9f569535}">
+          <x14:cfRule type="dataBar" id="{6e121f08-14e0-4a1f-a4b6-590f378c27b2}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2308,7 +2312,7 @@
           <xm:sqref>H4:H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fb79a9e-b365-4bd4-970a-2b26f0ac3686}">
+          <x14:cfRule type="dataBar" id="{e1e866ce-c60f-4713-b057-e49696495af6}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2318,7 +2322,7 @@
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{32f30fa7-57f2-4446-9e7e-cdc1af8e4bab}">
+          <x14:cfRule type="dataBar" id="{0b1d2701-8165-43fe-9d5f-f28ecf15f4d4}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -1332,7 +1332,7 @@
         <v>3353</v>
       </c>
       <c r="G4" s="23" t="n">
-        <v>18193.15459215727</v>
+        <v>18192.02369248078</v>
       </c>
       <c r="H4" s="13">
         <f>(G4-D4)/D4</f>
@@ -1343,7 +1343,7 @@
         <v/>
       </c>
       <c r="J4" s="3" t="n">
-        <v>337794338945.8984</v>
+        <v>337773341404.9442</v>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>101.03</v>
       </c>
       <c r="G5" s="23" t="n">
-        <v>559.0114059704447</v>
+        <v>556.3165015343645</v>
       </c>
       <c r="H5" s="13">
         <f>(G5-D5)/D5</f>
@@ -1386,7 +1386,7 @@
         <v/>
       </c>
       <c r="J5" s="3" t="n">
-        <v>63600608380.69744</v>
+        <v>63294000036.33819</v>
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>0.175</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>0.56699161396952</v>
+        <v>0.56517634853585</v>
       </c>
       <c r="H6" s="13">
         <f>(G6-D6)/D6</f>
@@ -1427,11 +1427,11 @@
         <v/>
       </c>
       <c r="J6" s="3" t="n">
-        <v>25715803801.3562</v>
+        <v>25633472760.49154</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.45</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>29.2</v>
       </c>
       <c r="G7" s="23" t="n">
-        <v>74.8709029423175</v>
+        <v>74.56286248500992</v>
       </c>
       <c r="H7" s="13">
         <f>(G7-D7)/D7</f>
@@ -1468,7 +1468,7 @@
         <v/>
       </c>
       <c r="J7" s="3" t="n">
-        <v>4945632001.00121</v>
+        <v>4925284246.62142</v>
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>101.06</v>
       </c>
       <c r="G8" s="23" t="n">
-        <v>263.6478185884463</v>
+        <v>262.913148619849</v>
       </c>
       <c r="H8" s="13">
         <f>(G8-D8)/D8</f>
@@ -1509,7 +1509,7 @@
         <v/>
       </c>
       <c r="J8" s="3" t="n">
-        <v>4902651475.969391</v>
+        <v>4888994882.331687</v>
       </c>
       <c r="K8" s="17">
         <f>(K6-K4)/K4</f>
@@ -1538,7 +1538,7 @@
         <v>0.0303</v>
       </c>
       <c r="G9" s="23" t="n">
-        <v>0.14396258387361</v>
+        <v>0.14317892678707</v>
       </c>
       <c r="H9" s="13">
         <f>(G9-D9)/D9</f>
@@ -1549,7 +1549,7 @@
         <v/>
       </c>
       <c r="J9" s="3" t="n">
-        <v>4479033680.366179</v>
+        <v>4454652161.293473</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -1574,7 +1574,7 @@
         <v>5.37</v>
       </c>
       <c r="G10" s="23" t="n">
-        <v>27.70097704309598</v>
+        <v>27.61946567706656</v>
       </c>
       <c r="H10" s="13">
         <f>(G10-D10)/D10</f>
@@ -1585,7 +1585,7 @@
         <v/>
       </c>
       <c r="J10" s="3" t="n">
-        <v>4000202828.363341</v>
+        <v>3988432052.320772</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -1610,7 +1610,7 @@
         <v>0.04213</v>
       </c>
       <c r="G11" s="23" t="n">
-        <v>0.16897285061945</v>
+        <v>0.16826876537302</v>
       </c>
       <c r="H11" s="13">
         <f>(G11-D11)/D11</f>
@@ -1621,7 +1621,7 @@
         <v/>
       </c>
       <c r="J11" s="3" t="n">
-        <v>3675458540.637029</v>
+        <v>3660143440.472471</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -1646,7 +1646,7 @@
         <v>2.1481</v>
       </c>
       <c r="G12" s="24" t="n">
-        <v>2.77430690305847</v>
+        <v>2.76131622050047</v>
       </c>
       <c r="H12" s="13">
         <f>(G12-D12)/D12</f>
@@ -1657,7 +1657,7 @@
         <v/>
       </c>
       <c r="J12" s="8" t="n">
-        <v>2603636954.342361</v>
+        <v>2591445433.233845</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -1682,7 +1682,7 @@
         <v>20.92</v>
       </c>
       <c r="G13" s="23" t="n">
-        <v>30.58349562429164</v>
+        <v>30.59597764533731</v>
       </c>
       <c r="H13" s="13">
         <f>(G13-D13)/D13</f>
@@ -1693,7 +1693,7 @@
         <v/>
       </c>
       <c r="J13" s="3" t="n">
-        <v>1363540838.530021</v>
+        <v>1364097339.515136</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -1718,7 +1718,7 @@
         <v>6.37</v>
       </c>
       <c r="G14" s="23" t="n">
-        <v>16.54882609500235</v>
+        <v>16.42124385052601</v>
       </c>
       <c r="H14" s="13">
         <f>(G14-D14)/D14</f>
@@ -1729,7 +1729,7 @@
         <v/>
       </c>
       <c r="J14" s="3" t="n">
-        <v>1167334847.163761</v>
+        <v>1158335344.782043</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -1754,7 +1754,7 @@
         <v>0.88</v>
       </c>
       <c r="G15" s="23" t="n">
-        <v>4.06359731767951</v>
+        <v>4.0597623736494</v>
       </c>
       <c r="H15" s="13">
         <f>(G15-D15)/D15</f>
@@ -1765,7 +1765,7 @@
         <v/>
       </c>
       <c r="J15" s="3" t="n">
-        <v>832272487.0902694</v>
+        <v>831487045.4836651</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -1790,7 +1790,7 @@
         <v>25.12</v>
       </c>
       <c r="G16" s="23" t="n">
-        <v>67.67031884154632</v>
+        <v>67.64358246492625</v>
       </c>
       <c r="H16" s="13">
         <f>(G16-D16)/D16</f>
@@ -1801,7 +1801,7 @@
         <v/>
       </c>
       <c r="J16" s="3" t="n">
-        <v>721147785.0121125</v>
+        <v>720862861.2950549</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -1826,7 +1826,7 @@
         <v>3.36</v>
       </c>
       <c r="G17" s="23" t="n">
-        <v>5.97045888674718</v>
+        <v>5.92900922790242</v>
       </c>
       <c r="H17" s="13">
         <f>(G17-D17)/D17</f>
@@ -1837,7 +1837,7 @@
         <v/>
       </c>
       <c r="J17" s="3" t="n">
-        <v>694443769.6614319</v>
+        <v>689622623.0987734</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -1862,7 +1862,7 @@
         <v>0.58</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>5.24812206244631</v>
+        <v>5.24105963104056</v>
       </c>
       <c r="H18" s="13">
         <f>(G18-D18)/D18</f>
@@ -1873,7 +1873,7 @@
         <v/>
       </c>
       <c r="J18" s="8" t="n">
-        <v>314887323.7467786</v>
+        <v>314463577.8624336</v>
       </c>
     </row>
   </sheetData>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
-    <t>2020-12-15 08:00:00</t>
+    <t>2020-12-18 08:00:00</t>
   </si>
   <si>
     <t>挖矿成本</t>
   </si>
   <si>
-    <t>贪婪 : 91</t>
+    <t>贪婪 : 95</t>
   </si>
   <si>
     <t>$10,065.84</t>
@@ -66,7 +66,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.5537</t>
+    <t>6.5444</t>
   </si>
   <si>
     <t>ETH</t>
@@ -78,7 +78,7 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>6.43</t>
+    <t>6.41</t>
   </si>
   <si>
     <t>LTC</t>
@@ -108,10 +108,10 @@
     <t>NEO</t>
   </si>
   <si>
+    <t>ZEC</t>
+  </si>
+  <si>
     <t>HT</t>
-  </si>
-  <si>
-    <t>ZEC</t>
   </si>
   <si>
     <t>ETC</t>
@@ -125,12 +125,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -180,7 +180,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,15 +249,67 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,112 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -350,127 +350,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,55 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,70 +548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +570,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -641,151 +587,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,18 +1321,18 @@
         <v>3353</v>
       </c>
       <c r="G4" s="12">
-        <v>19444.0713335756</v>
+        <v>22943.0621591941</v>
       </c>
       <c r="H4" s="13">
         <f t="shared" ref="H4:H18" si="0">(G4-D4)/D4</f>
-        <v>5.16293861603029</v>
+        <v>6.27196898865106</v>
       </c>
       <c r="I4" s="13">
         <f t="shared" ref="I4:I18" si="1">(G4-F4)/F4</f>
-        <v>4.79900725725487</v>
+        <v>5.84254761681899</v>
       </c>
       <c r="J4" s="3">
-        <v>361102284723.443</v>
+        <v>426144000626.69</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>16</v>
@@ -1360,18 +1360,18 @@
         <v>101.03</v>
       </c>
       <c r="G5" s="12">
-        <v>593.718381322874</v>
+        <v>645.272013152594</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>6.24665423316092</v>
+        <v>6.87589421643591</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>4.87665427420444</v>
+        <v>5.38693470407398</v>
       </c>
       <c r="J5" s="3">
-        <v>67586647961.6636</v>
+        <v>73482245943.3155</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>18</v>
@@ -1397,18 +1397,18 @@
         <v>0.175</v>
       </c>
       <c r="G6" s="12">
-        <v>0.50485914943408</v>
+        <v>0.59094752447242</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>1.05227296517919</v>
+        <v>1.40222570923748</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="1"/>
-        <v>1.8849094253376</v>
+        <v>2.37684299698526</v>
       </c>
       <c r="J6" s="3">
-        <v>22922639280.071</v>
+        <v>26831398325.8829</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>20</v>
@@ -1434,18 +1434,18 @@
         <v>29.2</v>
       </c>
       <c r="G7" s="12">
-        <v>84.1532229866725</v>
+        <v>108.482468345693</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" si="0"/>
-        <v>2.57642256636942</v>
+        <v>3.61038964495082</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" si="1"/>
-        <v>1.8819596913244</v>
+        <v>2.71515302553742</v>
       </c>
       <c r="J7" s="3">
-        <v>5561686371.58557</v>
+        <v>7172025317.20343</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>22</v>
@@ -1471,22 +1471,22 @@
         <v>101.06</v>
       </c>
       <c r="G8" s="12">
-        <v>279.155660617864</v>
+        <v>314.53049919932</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" si="0"/>
-        <v>2.76474255722001</v>
+        <v>3.24181387996385</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="1"/>
-        <v>1.76227647553794</v>
+        <v>2.11231445873065</v>
       </c>
       <c r="J8" s="3">
-        <v>5192185369.9509</v>
+        <v>5850538567.66291</v>
       </c>
       <c r="K8" s="17">
         <f>(K6-K4)/K4</f>
-        <v>-0.018874834063201</v>
+        <v>-0.0205366420145468</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:10">
@@ -1509,18 +1509,18 @@
         <v>0.0303</v>
       </c>
       <c r="G9" s="12">
-        <v>0.15940160171104</v>
+        <v>0.1665964252847</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="0"/>
-        <v>4.90376302633482</v>
+        <v>5.17023797350741</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="1"/>
-        <v>4.26077893435776</v>
+        <v>4.49823185758086</v>
       </c>
       <c r="J9" s="3">
-        <v>4959379885.78254</v>
+        <v>5183228723.74872</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:10">
@@ -1543,18 +1543,18 @@
         <v>5.37</v>
       </c>
       <c r="G10" s="12">
-        <v>30.0232147031583</v>
+        <v>30.3859351828345</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="0"/>
-        <v>6.14838445313294</v>
+        <v>6.23474647210346</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" si="1"/>
-        <v>4.59091521474084</v>
+        <v>4.65846092790215</v>
       </c>
       <c r="J10" s="3">
-        <v>4335549182.44541</v>
+        <v>4387928399.48345</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:10">
@@ -1577,18 +1577,18 @@
         <v>0.04213</v>
       </c>
       <c r="G11" s="12">
-        <v>0.17524429424791</v>
+        <v>0.18477159535366</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>1.41383325410344</v>
+        <v>1.54506329688237</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="1"/>
-        <v>3.15960821855946</v>
+        <v>3.3857487622516</v>
       </c>
       <c r="J11" s="3">
-        <v>3818964392.06601</v>
+        <v>4033626757.86854</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:10">
@@ -1596,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>43441</v>
@@ -1611,18 +1611,18 @@
         <v>2.1481</v>
       </c>
       <c r="G12" s="14">
-        <v>2.86187430757892</v>
+        <v>3.07249411856739</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="0"/>
-        <v>0.874180947988815</v>
+        <v>1.01211140705134</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" si="1"/>
-        <v>0.332281694324715</v>
+        <v>0.430331045373768</v>
       </c>
       <c r="J12" s="8">
-        <v>2686191726.99049</v>
+        <v>2884147841.20287</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:10">
@@ -1645,18 +1645,18 @@
         <v>20.92</v>
       </c>
       <c r="G13" s="12">
-        <v>29.7042335051367</v>
+        <v>28.7364246987006</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="0"/>
-        <v>0.41989643906007</v>
+        <v>0.373634067815516</v>
       </c>
       <c r="I13" s="13">
         <f t="shared" si="1"/>
-        <v>0.41989643906007</v>
+        <v>0.373634067815516</v>
       </c>
       <c r="J13" s="3">
-        <v>1324339635.96088</v>
+        <v>1281190649.73393</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:10">
@@ -1679,18 +1679,18 @@
         <v>6.37</v>
       </c>
       <c r="G14" s="12">
-        <v>17.4397677308266</v>
+        <v>17.7483740985212</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="0"/>
-        <v>2.21766932303074</v>
+        <v>2.27460776725483</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" si="1"/>
-        <v>1.7377971319979</v>
+        <v>1.78624397151039</v>
       </c>
       <c r="J14" s="3">
-        <v>1230180828.64403</v>
+        <v>1251949561.06036</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:10">
@@ -1698,33 +1698,33 @@
         <v>30</v>
       </c>
       <c r="B15" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
-        <v>43495</v>
+        <v>43505</v>
       </c>
       <c r="D15" s="1">
-        <v>0.88</v>
+        <v>45.3</v>
       </c>
       <c r="E15" s="2">
-        <v>43495</v>
+        <v>43794</v>
       </c>
       <c r="F15" s="1">
-        <v>0.88</v>
+        <v>25.12</v>
       </c>
       <c r="G15" s="12">
-        <v>3.9434396790525</v>
+        <v>75.5948001280202</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="0"/>
-        <v>3.48118145346875</v>
+        <v>0.668759384724507</v>
       </c>
       <c r="I15" s="13">
         <f t="shared" si="1"/>
-        <v>3.48118145346875</v>
+        <v>2.00934713885431</v>
       </c>
       <c r="J15" s="3">
-        <v>807662790.576319</v>
+        <v>809790870.138885</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:10">
@@ -1732,33 +1732,33 @@
         <v>31</v>
       </c>
       <c r="B16" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
-        <v>43505</v>
+        <v>43495</v>
       </c>
       <c r="D16" s="1">
-        <v>45.3</v>
+        <v>0.88</v>
       </c>
       <c r="E16" s="2">
-        <v>43794</v>
+        <v>43495</v>
       </c>
       <c r="F16" s="1">
-        <v>25.12</v>
+        <v>0.88</v>
       </c>
       <c r="G16" s="12">
-        <v>68.6602680661303</v>
+        <v>4.06257449894167</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="0"/>
-        <v>0.515679206757842</v>
+        <v>3.61656193061553</v>
       </c>
       <c r="I16" s="13">
         <f t="shared" si="1"/>
-        <v>1.73329092619945</v>
+        <v>3.61656193061553</v>
       </c>
       <c r="J16" s="3">
-        <v>733990710.300519</v>
+        <v>806411597.650354</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:10">
@@ -1766,7 +1766,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>43441</v>
@@ -1781,18 +1781,18 @@
         <v>3.36</v>
       </c>
       <c r="G17" s="12">
-        <v>6.07775169840641</v>
+        <v>6.48832319462936</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>0.893380591403866</v>
+        <v>1.02128448430821</v>
       </c>
       <c r="I17" s="13">
         <f t="shared" si="1"/>
-        <v>0.808854672144765</v>
+        <v>0.931048569830167</v>
       </c>
       <c r="J17" s="3">
-        <v>706923350.544503</v>
+        <v>754678275.74556</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:10">
@@ -1800,7 +1800,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2">
         <v>43480</v>
@@ -1815,18 +1815,18 @@
         <v>0.58</v>
       </c>
       <c r="G18" s="12">
-        <v>5.60565660933049</v>
+        <v>6.00691547935874</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="0"/>
-        <v>8.66492518850085</v>
+        <v>9.35675082648059</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" si="1"/>
-        <v>8.66492518850085</v>
+        <v>9.35675082648059</v>
       </c>
       <c r="J18" s="8">
-        <v>336339396.559829</v>
+        <v>360414928.761524</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1843,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3b77d48-bf31-498b-9149-3722a9a01430}</x14:id>
+          <x14:id>{3284308d-369f-4348-aa69-16381d9c983c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1893,7 +1893,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04042a85-d57c-4336-abc9-0e35f84256cc}</x14:id>
+          <x14:id>{29056598-6b7f-4663-9d67-68cac1873263}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1907,7 +1907,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74c1368f-35c0-47af-8cf7-dec9a994113e}</x14:id>
+          <x14:id>{19a351d8-cdc1-46bf-94b6-8c9d3f26464f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1919,7 +1919,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40548ec1-56dd-40df-9199-4e1d755f9065}</x14:id>
+          <x14:id>{61ce0787-02f9-423d-a266-03d513155a35}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1933,7 +1933,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46caf7f1-01b8-4f0b-8600-c560285d92a4}</x14:id>
+          <x14:id>{0b9c5146-c925-4d03-aaed-c2de3efd0cc2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1947,7 +1947,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a76c574e-0c97-4337-baa8-008da2185882}</x14:id>
+          <x14:id>{d5932e44-6cdc-4e0f-9d1e-d4da78e34fd0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1959,7 +1959,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1586344d-401d-4f30-96c3-7e8445a192cc}</x14:id>
+          <x14:id>{fead2865-f64f-4dcb-b26f-947800e75a52}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1973,7 +1973,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e7b52e2-f6fc-447e-9e03-17397c10ed95}</x14:id>
+          <x14:id>{4033bd50-f8ba-4872-85b3-27f7c6f71daf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1987,7 +1987,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f6b11a39-bf19-4e03-aa1a-4aea0d5aa40d}</x14:id>
+          <x14:id>{0e89e23e-1183-4e5e-8a8c-b917dd989968}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1999,7 +1999,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a3b77d48-bf31-498b-9149-3722a9a01430}">
+          <x14:cfRule type="dataBar" id="{3284308d-369f-4348-aa69-16381d9c983c}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2009,7 +2009,7 @@
           <xm:sqref>K1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04042a85-d57c-4336-abc9-0e35f84256cc}">
+          <x14:cfRule type="dataBar" id="{29056598-6b7f-4663-9d67-68cac1873263}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2019,14 +2019,14 @@
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74c1368f-35c0-47af-8cf7-dec9a994113e}">
+          <x14:cfRule type="dataBar" id="{19a351d8-cdc1-46bf-94b6-8c9d3f26464f}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{40548ec1-56dd-40df-9199-4e1d755f9065}">
+          <x14:cfRule type="dataBar" id="{61ce0787-02f9-423d-a266-03d513155a35}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2036,7 +2036,7 @@
           <xm:sqref>H4:H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{46caf7f1-01b8-4f0b-8600-c560285d92a4}">
+          <x14:cfRule type="dataBar" id="{0b9c5146-c925-4d03-aaed-c2de3efd0cc2}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2046,14 +2046,14 @@
           <xm:sqref>I3:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a76c574e-0c97-4337-baa8-008da2185882}">
+          <x14:cfRule type="dataBar" id="{d5932e44-6cdc-4e0f-9d1e-d4da78e34fd0}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1586344d-401d-4f30-96c3-7e8445a192cc}">
+          <x14:cfRule type="dataBar" id="{fead2865-f64f-4dcb-b26f-947800e75a52}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2063,7 +2063,7 @@
           <xm:sqref>I4:I18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0e7b52e2-f6fc-447e-9e03-17397c10ed95}">
+          <x14:cfRule type="dataBar" id="{4033bd50-f8ba-4872-85b3-27f7c6f71daf}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2073,7 +2073,7 @@
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f6b11a39-bf19-4e03-aa1a-4aea0d5aa40d}">
+          <x14:cfRule type="dataBar" id="{0e89e23e-1183-4e5e-8a8c-b917dd989968}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27260" windowHeight="12060" tabRatio="500"/>
+    <workbookView windowWidth="28060" windowHeight="12060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>2021-01-18 08:00:00</t>
   </si>
@@ -34,27 +34,110 @@
     <t>市值排名</t>
   </si>
   <si>
-    <t>低点日期（18-19年）</t>
-  </si>
-  <si>
-    <t>低点价格(18-19年)</t>
-  </si>
-  <si>
-    <t>低点日期（18-20年）</t>
-  </si>
-  <si>
-    <t>低点价格(18-20年)</t>
+    <t>低点日期
+（18 年）</t>
+  </si>
+  <si>
+    <t>低点价格
+(18 年)</t>
+  </si>
+  <si>
+    <t>低点日期
+（19 年）</t>
+  </si>
+  <si>
+    <t>低点价格
+(19 年)</t>
+  </si>
+  <si>
+    <r>
+      <t>低点日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Helvetica Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Helvetica Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>低点价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Helvetica Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Helvetica Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>当前价格</t>
   </si>
   <si>
-    <t>涨幅(相对 
-低点价格 18-19年）</t>
-  </si>
-  <si>
-    <t>涨幅（相对  
-低点价格18-20年）</t>
+    <t>涨幅(相对 18
+年低点价格 ）</t>
+  </si>
+  <si>
+    <t>涨幅（相对 19 
+年低点价格）</t>
+  </si>
+  <si>
+    <t>涨幅（相对 20 
+年低点价格）</t>
   </si>
   <si>
     <t>总市值</t>
@@ -66,7 +149,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.4925</t>
+    <t>6.4909</t>
   </si>
   <si>
     <t>ETH</t>
@@ -122,14 +205,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +231,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -184,6 +273,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Helvetica Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -192,7 +300,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,135 +442,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -368,25 +476,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,151 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,56 +667,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,10 +690,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -653,155 +720,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,67 +917,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8303571428571" defaultRowHeight="22" customHeight="1"/>
@@ -1269,70 +1401,81 @@
     <col min="4" max="4" width="18.0714285714286" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.1964285714286" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.1607142857143" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.8303571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.8035714285714" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.1339285714286" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6607142857143" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.8303571428571" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="12.8303571428571" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.1607142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.1607142857143" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.8303571428571" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.8035714285714" style="2" customWidth="1"/>
+    <col min="11" max="12" width="17.1339285714286" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.6607142857143" style="6" customWidth="1"/>
+    <col min="14" max="14" width="17.8303571428571" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="12.8303571428571" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="17.5" customHeight="1" spans="1:14">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="N1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="36" customHeight="1" spans="1:11">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="36" customHeight="1" spans="1:14">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="N2" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:11">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:14">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:14">
+    <row r="4" ht="25" customHeight="1" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -1347,31 +1490,38 @@
       <c r="F4" s="2">
         <v>3353</v>
       </c>
-      <c r="G4" s="15">
-        <v>36399.2424432048</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" ref="H4:H17" si="0">(G4-D4)/D4</f>
-        <v>10.5370023591774</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I17" si="1">(G4-F4)/F4</f>
-        <v>9.85572396158807</v>
-      </c>
-      <c r="J4" s="4">
-        <v>677158075092.92</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="G4" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H4" s="19">
+        <v>3800</v>
+      </c>
+      <c r="I4" s="23">
+        <v>36417.8334357159</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" ref="J4:J17" si="0">(I4-D4)/D4</f>
+        <v>10.5428949083093</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" ref="K4:K17" si="1">(I4-F4)/F4</f>
+        <v>9.86126854629165</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="6">
+        <v>677506666395.028</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:11">
+    <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -1386,29 +1536,36 @@
       <c r="F5" s="2">
         <v>101.03</v>
       </c>
-      <c r="G5" s="15">
-        <v>1225.89381441523</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="G5" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H5" s="19">
+        <v>87</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1224.88509641511</v>
+      </c>
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
-        <v>13.9626976005764</v>
-      </c>
-      <c r="I5" s="16">
+        <v>13.9503856513501</v>
+      </c>
+      <c r="K5" s="24">
         <f t="shared" si="1"/>
-        <v>11.1339583729113</v>
-      </c>
-      <c r="J5" s="4">
-        <v>140119320349.113</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>11.1239740316254</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="6">
+        <v>140005355766.848</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:11">
+    <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12">
         <v>5</v>
       </c>
       <c r="C6" s="3">
@@ -1423,29 +1580,36 @@
       <c r="F6" s="2">
         <v>0.175</v>
       </c>
-      <c r="G6" s="15">
-        <v>0.28456622599857</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="G6" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.1011</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.28386038247187</v>
+      </c>
+      <c r="J6" s="24">
         <f t="shared" si="0"/>
-        <v>0.156773276416951</v>
-      </c>
-      <c r="I6" s="16">
+        <v>0.153903993788089</v>
+      </c>
+      <c r="K6" s="24">
         <f t="shared" si="1"/>
-        <v>0.626092719991829</v>
-      </c>
-      <c r="J6" s="4">
-        <v>12920453075.2158</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>0.622059328410686</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="6">
+        <v>12888404935.5141</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:11">
+    <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12">
         <v>6</v>
       </c>
       <c r="C7" s="3">
@@ -1460,29 +1624,36 @@
       <c r="F7" s="2">
         <v>0.0303</v>
       </c>
-      <c r="G7" s="15">
-        <v>0.3752431089719</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.01745</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.3713370248549</v>
+      </c>
+      <c r="J7" s="24">
         <f t="shared" si="0"/>
-        <v>12.8978929248852</v>
-      </c>
-      <c r="I7" s="16">
+        <v>12.7532231427741</v>
+      </c>
+      <c r="K7" s="24">
         <f t="shared" si="1"/>
-        <v>11.3842610221749</v>
-      </c>
-      <c r="J7" s="4">
-        <v>11674745466.4055</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>11.2553473549472</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="6">
+        <v>11553217484.2894</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:11">
+    <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="9">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12">
         <v>7</v>
       </c>
       <c r="C8" s="3">
@@ -1497,30 +1668,37 @@
       <c r="F8" s="2">
         <v>29.2</v>
       </c>
-      <c r="G8" s="15">
-        <v>142.322836282822</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="G8" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H8" s="19">
+        <v>23.85</v>
+      </c>
+      <c r="I8" s="23">
+        <v>141.809486919445</v>
+      </c>
+      <c r="J8" s="24">
         <f t="shared" si="0"/>
-        <v>5.04856932778674</v>
-      </c>
-      <c r="I8" s="16">
+        <v>5.02675252526328</v>
+      </c>
+      <c r="K8" s="24">
         <f t="shared" si="1"/>
-        <v>3.87406973571309</v>
-      </c>
-      <c r="J8" s="4">
-        <v>9436634329.35625</v>
-      </c>
-      <c r="K8" s="22">
-        <f>(K6-K4)/K4</f>
-        <v>-0.0173276857912976</v>
+        <v>3.85648927806318</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="6">
+        <v>9402676761.00737</v>
+      </c>
+      <c r="N8" s="31">
+        <f>(N6-N4)/N4</f>
+        <v>-0.0170854581028825</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:10">
+    <row r="9" ht="25" customHeight="1" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12">
         <v>8</v>
       </c>
       <c r="C9" s="3">
@@ -1535,26 +1713,33 @@
       <c r="F9" s="2">
         <v>101.06</v>
       </c>
-      <c r="G9" s="15">
-        <v>484.001629739111</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H9" s="19">
+        <v>129</v>
+      </c>
+      <c r="I9" s="23">
+        <v>481.436440241223</v>
+      </c>
+      <c r="J9" s="24">
         <f t="shared" si="0"/>
-        <v>5.52733148670413</v>
-      </c>
-      <c r="I9" s="16">
+        <v>5.49273688794637</v>
+      </c>
+      <c r="K9" s="24">
         <f t="shared" si="1"/>
-        <v>3.78925024479627</v>
-      </c>
-      <c r="J9" s="4">
-        <v>9017186312.83414</v>
+        <v>3.76386740788861</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="6">
+        <v>8969431689.69162</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:10">
+    <row r="10" ht="25" customHeight="1" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9">
+        <v>28</v>
+      </c>
+      <c r="B10" s="12">
         <v>10</v>
       </c>
       <c r="C10" s="3">
@@ -1569,26 +1754,33 @@
       <c r="F10" s="2">
         <v>0.04213</v>
       </c>
-      <c r="G10" s="15">
-        <v>0.30065310798543</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="G10" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.026016</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.29789948203186</v>
+      </c>
+      <c r="J10" s="24">
         <f t="shared" si="0"/>
-        <v>3.14122738271942</v>
-      </c>
-      <c r="I10" s="16">
+        <v>3.10329865057658</v>
+      </c>
+      <c r="K10" s="24">
         <f t="shared" si="1"/>
-        <v>6.13631872740161</v>
-      </c>
-      <c r="J10" s="4">
-        <v>6643111116.69169</v>
+        <v>6.07095851013197</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="6">
+        <v>6582268096.28872</v>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1" spans="1:10">
+    <row r="11" ht="25" customHeight="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12">
         <v>11</v>
       </c>
       <c r="C11" s="3">
@@ -1603,27 +1795,34 @@
       <c r="F11" s="2">
         <v>5.37</v>
       </c>
-      <c r="G11" s="15">
-        <v>45.8870195461558</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H11" s="19">
+        <v>6.38</v>
+      </c>
+      <c r="I11" s="23">
+        <v>44.7286533889849</v>
+      </c>
+      <c r="J11" s="24">
         <f t="shared" si="0"/>
-        <v>9.92548084432281</v>
-      </c>
-      <c r="I11" s="16">
+        <v>9.64967937832974</v>
+      </c>
+      <c r="K11" s="24">
         <f t="shared" si="1"/>
-        <v>7.54506881678879</v>
-      </c>
-      <c r="J11" s="4">
-        <v>6534612648.10783</v>
+        <v>7.32935817299533</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="6">
+        <v>6369653707.28634</v>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1" spans="1:10">
+    <row r="12" ht="25" customHeight="1" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="12">
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>43441</v>
@@ -1637,27 +1836,34 @@
       <c r="F12" s="2">
         <v>2.1481</v>
       </c>
-      <c r="G12" s="17">
-        <v>2.78155212523776</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="G12" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1.3904</v>
+      </c>
+      <c r="I12" s="25">
+        <v>2.79715945041597</v>
+      </c>
+      <c r="J12" s="24">
         <f t="shared" si="0"/>
-        <v>0.821579649795521</v>
-      </c>
-      <c r="I12" s="16">
+        <v>0.83180055691943</v>
+      </c>
+      <c r="K12" s="24">
         <f t="shared" si="1"/>
-        <v>0.294889495478684</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2613471415.41576</v>
+        <v>0.302155137291546</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="12">
+        <v>2628142647.37612</v>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1" spans="1:10">
+    <row r="13" ht="25" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="12">
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>43441</v>
@@ -1671,26 +1877,33 @@
       <c r="F13" s="2">
         <v>6.37</v>
       </c>
-      <c r="G13" s="15">
-        <v>24.5711319173244</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="G13" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H13" s="19">
+        <v>17</v>
+      </c>
+      <c r="I13" s="23">
+        <v>27.2327856995655</v>
+      </c>
+      <c r="J13" s="24">
         <f t="shared" si="0"/>
-        <v>3.53341917293809</v>
-      </c>
-      <c r="I13" s="16">
+        <v>4.0244992065619</v>
+      </c>
+      <c r="K13" s="24">
         <f t="shared" si="1"/>
-        <v>2.85732055217024</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1733218921.79486</v>
+        <v>3.27516259019867</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="6">
+        <v>1920968868.12087</v>
       </c>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:10">
+    <row r="14" ht="25" customHeight="1" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12">
         <v>36</v>
       </c>
       <c r="C14" s="3">
@@ -1705,67 +1918,63 @@
       <c r="F14" s="2">
         <v>25.12</v>
       </c>
-      <c r="G14" s="15">
-        <v>103.489766867475</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="I14" s="23">
+        <v>103.042197541717</v>
+      </c>
+      <c r="J14" s="24">
         <f t="shared" si="0"/>
-        <v>1.28454231495529</v>
-      </c>
-      <c r="I14" s="16">
+        <v>1.2746621973889</v>
+      </c>
+      <c r="K14" s="24">
         <f t="shared" si="1"/>
-        <v>3.11981556001093</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1131705230.65779</v>
+        <v>3.10199830978173</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="6">
+        <v>1126876556.4673</v>
       </c>
     </row>
-    <row r="15" ht="25" customHeight="1" spans="1:10">
+    <row r="15" ht="25" customHeight="1" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="9">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12">
         <v>38</v>
       </c>
-      <c r="C15" s="3">
-        <v>44128</v>
-      </c>
-      <c r="D15" s="2">
-        <v>20.92</v>
-      </c>
-      <c r="E15" s="3">
-        <v>44128</v>
-      </c>
-      <c r="F15" s="2">
-        <v>20.92</v>
-      </c>
-      <c r="G15" s="15">
-        <v>24.2778220516038</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="23">
+        <v>24.0419291960009</v>
+      </c>
+      <c r="J15" s="24" t="e">
         <f t="shared" si="0"/>
-        <v>0.160507746252574</v>
-      </c>
-      <c r="I15" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="24" t="e">
         <f t="shared" si="1"/>
-        <v>0.160507746252574</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1082407395.30223</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="6">
+        <v>1071890299.86999</v>
       </c>
     </row>
-    <row r="16" ht="25" customHeight="1" spans="1:10">
+    <row r="16" ht="25" customHeight="1" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="9">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="12">
+        <v>39</v>
       </c>
       <c r="C16" s="3">
-        <v>43495</v>
+        <v>43442</v>
       </c>
       <c r="D16" s="2">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="E16" s="3">
         <v>43495</v>
@@ -1773,71 +1982,88 @@
       <c r="F16" s="2">
         <v>0.88</v>
       </c>
-      <c r="G16" s="15">
-        <v>5.42451257723006</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="G16" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1.8361</v>
+      </c>
+      <c r="I16" s="23">
+        <v>5.41571690745851</v>
+      </c>
+      <c r="J16" s="24">
         <f t="shared" si="0"/>
-        <v>5.16421883776143</v>
-      </c>
-      <c r="I16" s="16">
+        <v>4.25797758005681</v>
+      </c>
+      <c r="K16" s="24">
         <f t="shared" si="1"/>
-        <v>5.16421883776143</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1049282590.60051</v>
+        <v>5.15422375847558</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="6">
+        <v>1047581213.18962</v>
       </c>
     </row>
-    <row r="17" ht="25" customHeight="1" spans="1:10">
-      <c r="A17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="10">
-        <v>69</v>
+    <row r="17" ht="25" customHeight="1" spans="1:13">
+      <c r="A17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="13">
+        <v>68</v>
       </c>
       <c r="C17" s="3">
-        <v>43480</v>
+        <v>43441</v>
       </c>
       <c r="D17" s="2">
-        <v>0.58</v>
+        <v>0.623</v>
       </c>
       <c r="E17" s="3">
-        <v>43480</v>
+        <v>43478</v>
       </c>
       <c r="F17" s="2">
-        <v>0.58</v>
-      </c>
-      <c r="G17" s="15">
-        <v>6.54955043618039</v>
-      </c>
-      <c r="H17" s="16">
+        <v>0.57</v>
+      </c>
+      <c r="G17" s="18">
+        <v>43903</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2</v>
+      </c>
+      <c r="I17" s="23">
+        <v>6.63439933955061</v>
+      </c>
+      <c r="J17" s="24">
         <f t="shared" si="0"/>
-        <v>10.2923283382421</v>
-      </c>
-      <c r="I17" s="16">
+        <v>9.64911611484849</v>
+      </c>
+      <c r="K17" s="24">
         <f t="shared" si="1"/>
-        <v>10.2923283382421</v>
-      </c>
-      <c r="J17" s="4">
-        <v>392973026.170823</v>
+        <v>10.6392970869309</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="6">
+        <v>398063960.373037</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="25" customHeight="1" spans="2:10">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="11"/>
+    <row r="18" s="1" customFormat="1" ht="25" customHeight="1" spans="2:13">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="N1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1845,13 +2071,27 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9db7a12-1d3d-49ca-8f21-e572b99b8e36}</x14:id>
+          <x14:id>{23daa4fc-5857-4e79-aa6c-c0bdcce12757}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{af8b05d5-0ad4-4776-828a-df81ef0138f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1863,7 +2103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1875,7 +2115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E18">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1886,8 +2126,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H1048576">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="J3:J1048576">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1895,13 +2135,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d330af50-b8b4-4341-ad67-59d5403f966b}</x14:id>
+          <x14:id>{6030a410-87c2-4453-9810-6478cc684b3e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H18">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="J4:J18">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1909,11 +2149,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9bb782c-16b7-4987-881d-a41b9e75c3f8}</x14:id>
+          <x14:id>{54fd3895-ef0d-4211-b734-af38601230f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1921,12 +2161,40 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ec73b8a8-9a24-492a-b40c-53dbe192ee0c}</x14:id>
+          <x14:id>{ae90e17f-a0c0-4c28-9c5e-9d205ba17a6a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I1048576">
+  <conditionalFormatting sqref="M3:M1048576">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{83f3047c-8b7d-4e2e-ac9e-5cb783e3e26c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:L1048576">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7b38350b-3340-458b-b7be-b9b3d5cef291}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L18">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1935,25 +2203,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e5fcb728-6020-4c36-b763-dd76115e6cf6}</x14:id>
+          <x14:id>{6bf7064f-3ffb-42a7-91d3-667f2ae67bb2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I18">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5997288-26ba-4d45-85f0-f3cddf9a72b4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1961,27 +2215,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{317df8fb-bc79-451d-9511-94d2f5d9a956}</x14:id>
+          <x14:id>{7fe85157-c72a-4a01-b39d-4a6cab4dca69}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J1048576">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd69a9ef-7f43-40e8-b7eb-884881e0c214}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J10 J12:J17">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="M4:M10 M12:M17">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1989,7 +2229,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a3f7d9f-aa8e-4682-a80d-47b6ada7be98}</x14:id>
+          <x14:id>{846819a3-2c33-415c-b686-88bed1ba27eb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2001,71 +2241,27 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9db7a12-1d3d-49ca-8f21-e572b99b8e36}">
+          <x14:cfRule type="dataBar" id="{23daa4fc-5857-4e79-aa6c-c0bdcce12757}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K1</xm:sqref>
+          <xm:sqref>N1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d330af50-b8b4-4341-ad67-59d5403f966b}">
+          <x14:cfRule type="dataBar" id="{af8b05d5-0ad4-4776-828a-df81ef0138f1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H3:H1048576</xm:sqref>
+          <xm:sqref>L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d9bb782c-16b7-4987-881d-a41b9e75c3f8}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ec73b8a8-9a24-492a-b40c-53dbe192ee0c}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H4:H18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e5fcb728-6020-4c36-b763-dd76115e6cf6}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I3:I1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d5997288-26ba-4d45-85f0-f3cddf9a72b4}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{317df8fb-bc79-451d-9511-94d2f5d9a956}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I4:I18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd69a9ef-7f43-40e8-b7eb-884881e0c214}">
+          <x14:cfRule type="dataBar" id="{6030a410-87c2-4453-9810-6478cc684b3e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2075,14 +2271,68 @@
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0a3f7d9f-aa8e-4682-a80d-47b6ada7be98}">
+          <x14:cfRule type="dataBar" id="{54fd3895-ef0d-4211-b734-af38601230f6}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J4:J10 J12:J17</xm:sqref>
+          <x14:cfRule type="dataBar" id="{ae90e17f-a0c0-4c28-9c5e-9d205ba17a6a}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J4:J18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{83f3047c-8b7d-4e2e-ac9e-5cb783e3e26c}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3:M1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7b38350b-3340-458b-b7be-b9b3d5cef291}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K3:L1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6bf7064f-3ffb-42a7-91d3-667f2ae67bb2}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7fe85157-c72a-4a01-b39d-4a6cab4dca69}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K4:L18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{846819a3-2c33-415c-b686-88bed1ba27eb}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M10 M12:M17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12440" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
-    <t>2021-01-19 08:00:00</t>
+    <t>2021-01-20 08:00:00</t>
   </si>
   <si>
     <t>挖矿成本</t>
   </si>
   <si>
-    <t>贪婪 : 80</t>
+    <t>贪婪 : 78</t>
   </si>
   <si>
     <t>$10,065.84</t>
@@ -82,7 +82,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.4871</t>
+    <t>6.4752</t>
   </si>
   <si>
     <t>ETH</t>
@@ -94,7 +94,7 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>6.34</t>
+    <t>6.36</t>
   </si>
   <si>
     <t>ADA</t>
@@ -141,10 +141,10 @@
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -222,8 +222,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,30 +269,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -269,14 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -284,8 +283,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,8 +321,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,44 +351,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -385,13 +385,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,163 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,45 +578,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +623,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -670,145 +655,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
@@ -1377,22 +1377,22 @@
         <v>3800</v>
       </c>
       <c r="I4" s="13">
-        <v>37219.4386191863</v>
+        <v>35834.0545396408</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J15" si="0">(I4-D4)/D4</f>
-        <v>10.7969694514061</v>
+        <v>10.3578619776991</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" ref="K4:K15" si="1">(I4-F4)/F4</f>
-        <v>10.1003395822208</v>
+        <v>9.68716210546997</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" ref="L4:L17" si="2">(I4-H4)/H4</f>
-        <v>8.79458911031219</v>
+        <v>8.43001435253705</v>
       </c>
       <c r="M4" s="5">
-        <v>692450199593.249</v>
+        <v>666701292385.27</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>19</v>
@@ -1426,22 +1426,22 @@
         <v>87</v>
       </c>
       <c r="I5" s="13">
-        <v>1375.20126013595</v>
+        <v>1377.71757848652</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="0"/>
-        <v>15.7850757980709</v>
+        <v>15.8157888256624</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" si="1"/>
-        <v>12.611810948589</v>
+        <v>12.6367175936506</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="2"/>
-        <v>14.8069110360454</v>
+        <v>14.8358342354772</v>
       </c>
       <c r="M5" s="5">
-        <v>157203707571.244</v>
+        <v>157505445468.249</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>21</v>
@@ -1473,22 +1473,22 @@
         <v>0.1011</v>
       </c>
       <c r="I6" s="13">
-        <v>0.3077136248394</v>
+        <v>0.29036393406219</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>0.250868393656098</v>
+        <v>0.180341195374756</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="1"/>
-        <v>0.758363570510857</v>
+        <v>0.659222480355372</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="2"/>
-        <v>2.04365603204154</v>
+        <v>1.87204682554095</v>
       </c>
       <c r="M6" s="5">
-        <v>13971438235.1263</v>
+        <v>13183692378.1828</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>23</v>
@@ -1520,22 +1520,22 @@
         <v>0.01745</v>
       </c>
       <c r="I7" s="13">
-        <v>0.37881453293849</v>
+        <v>0.36615170616366</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>13.0301678866107</v>
+        <v>12.5611743023578</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="1"/>
-        <v>11.5021297999502</v>
+        <v>11.0842147248733</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="2"/>
-        <v>20.7085692228361</v>
+        <v>19.9829057973444</v>
       </c>
       <c r="M7" s="5">
-        <v>11785861339.7304</v>
+        <v>11391889336.1236</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>25</v>
@@ -1567,26 +1567,26 @@
         <v>23.85</v>
       </c>
       <c r="I8" s="13">
-        <v>163.218221561301</v>
+        <v>152.113469184382</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>5.93660100133026</v>
+        <v>5.46466082381563</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="1"/>
-        <v>4.58966512196237</v>
+        <v>4.20936538302677</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="2"/>
-        <v>5.84353130236063</v>
+        <v>5.37792323624242</v>
       </c>
       <c r="M8" s="5">
-        <v>10823270161.2299</v>
+        <v>10087707574.4942</v>
       </c>
       <c r="N8" s="20">
         <f>(N6-N4)/N4</f>
-        <v>-0.0226757719165729</v>
+        <v>-0.0177909562638991</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:13">
@@ -1615,22 +1615,22 @@
         <v>129</v>
       </c>
       <c r="I9" s="13">
-        <v>528.580954675914</v>
+        <v>507.736536756865</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="0"/>
-        <v>6.1285361385828</v>
+        <v>5.84742463596581</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="1"/>
-        <v>4.23036764967261</v>
+        <v>4.02410980364996</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="2"/>
-        <v>3.09752678043345</v>
+        <v>2.93594214540205</v>
       </c>
       <c r="M9" s="5">
-        <v>9848242842.52043</v>
+        <v>9460204273.21429</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:13">
@@ -1659,22 +1659,22 @@
         <v>0.026016</v>
       </c>
       <c r="I10" s="13">
-        <v>0.31237674154571</v>
+        <v>0.29711103140967</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="0"/>
-        <v>3.30270993864614</v>
+        <v>3.09243844916901</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="1"/>
-        <v>6.41459153918134</v>
+        <v>6.05224380274555</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="2"/>
-        <v>11.007101074174</v>
+        <v>10.4203194730039</v>
       </c>
       <c r="M10" s="5">
-        <v>6902151846.29775</v>
+        <v>6564846805.89026</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:13">
@@ -1703,22 +1703,22 @@
         <v>6.38</v>
       </c>
       <c r="I11" s="13">
-        <v>45.4713617705654</v>
+        <v>41.9619153413973</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="0"/>
-        <v>9.82651470727747</v>
+        <v>8.9909322241422</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="1"/>
-        <v>7.4676651341835</v>
+        <v>6.81413693508329</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="2"/>
-        <v>6.12717269131119</v>
+        <v>5.57710271808734</v>
       </c>
       <c r="M11" s="5">
-        <v>6475420253.73309</v>
+        <v>6484491641.64034</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:13">
@@ -1747,22 +1747,22 @@
         <v>1.3904</v>
       </c>
       <c r="I12" s="13">
-        <v>2.89508639121928</v>
+        <v>2.78314155762356</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="0"/>
-        <v>0.895930839043406</v>
+        <v>0.822620535444375</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="1"/>
-        <v>0.347742838424319</v>
+        <v>0.295629420242801</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="2"/>
-        <v>1.08219677159039</v>
+        <v>1.00168408919991</v>
       </c>
       <c r="M12" s="5">
-        <v>2720226374.07213</v>
+        <v>2615102118.47256</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:13">
@@ -1791,22 +1791,22 @@
         <v>3.75</v>
       </c>
       <c r="I13" s="13">
-        <v>26.9506956240469</v>
+        <v>25.9416136987154</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="0"/>
-        <v>3.97245306716732</v>
+        <v>3.7862755901689</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="1"/>
-        <v>3.2308784339163</v>
+        <v>3.07246682868374</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="2"/>
-        <v>6.1868521664125</v>
+        <v>5.91776365299078</v>
       </c>
       <c r="M13" s="5">
-        <v>1901070563.95708</v>
+        <v>1829891104.56097</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:13">
@@ -1814,7 +1814,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>43442</v>
@@ -1835,22 +1835,22 @@
         <v>1.8361</v>
       </c>
       <c r="I14" s="13">
-        <v>6.16649040889733</v>
+        <v>5.71826029755657</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="0"/>
-        <v>4.98688389213333</v>
+        <v>4.55170902675395</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="1"/>
-        <v>6.00737546465606</v>
+        <v>5.49802306540519</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="2"/>
-        <v>2.35847198349618</v>
+        <v>2.11435123226217</v>
       </c>
       <c r="M14" s="5">
-        <v>1192805978.24053</v>
+        <v>1106103247.67871</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:13">
@@ -1879,22 +1879,22 @@
         <v>17</v>
       </c>
       <c r="I15" s="13">
-        <v>104.550447509889</v>
+        <v>101.261103991413</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="0"/>
-        <v>1.30795689867304</v>
+        <v>1.23534445897158</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="1"/>
-        <v>3.16204010787773</v>
+        <v>3.03109490411675</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="2"/>
-        <v>5.1500263241111</v>
+        <v>4.95653552890663</v>
       </c>
       <c r="M15" s="5">
-        <v>1144053726.92171</v>
+        <v>1108606566.49799</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:13">
@@ -1911,16 +1911,16 @@
         <v>20</v>
       </c>
       <c r="I16" s="13">
-        <v>23.6330892504424</v>
+        <v>22.7067689410452</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14">
         <f t="shared" si="2"/>
-        <v>0.18165446252212</v>
+        <v>0.135338447052262</v>
       </c>
       <c r="M16" s="5">
-        <v>1053662495.92502</v>
+        <v>1012363241.35519</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:13">
@@ -1928,7 +1928,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3">
         <v>43441</v>
@@ -1949,22 +1949,22 @@
         <v>2</v>
       </c>
       <c r="I17" s="13">
-        <v>6.50642537267424</v>
+        <v>5.9731615585932</v>
       </c>
       <c r="J17" s="14">
         <f>(I17-D17)/D17</f>
-        <v>9.44370043767936</v>
+        <v>8.58773925937913</v>
       </c>
       <c r="K17" s="14">
         <f>(I17-F17)/F17</f>
-        <v>10.4147813555688</v>
+        <v>9.47923080454948</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="2"/>
-        <v>2.25321268633712</v>
+        <v>1.9865807792966</v>
       </c>
       <c r="M17" s="5">
-        <v>390385522.360454</v>
+        <v>358389693.515592</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="25" customHeight="1" spans="3:13">
@@ -1991,7 +1991,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f5f676e2-e5c3-4387-a94f-5a5f62e0b76e}</x14:id>
+          <x14:id>{c4f34a4c-e8d3-4a29-89ed-1b54d41f322d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2005,7 +2005,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e8900cb-7d7a-4b41-bb1c-a044bcb87c7d}</x14:id>
+          <x14:id>{08a2258a-f151-43ca-a37b-9090b1f69d54}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2019,7 +2019,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15178c22-57bf-46bd-a8c2-0f806089db91}</x14:id>
+          <x14:id>{6a8c7c65-b1f6-4e15-824f-fcfb6994b85a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2081,7 +2081,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{548e73ef-125c-491a-aa1b-ea7e2b481988}</x14:id>
+          <x14:id>{de9ebfbd-0124-4588-b1fb-4c5351aade21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2093,7 +2093,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f45ef6bc-f28b-4065-8d89-6ab786afd876}</x14:id>
+          <x14:id>{31adc623-7aa7-483b-ba96-840205673926}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2107,7 +2107,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7db8eb0d-793f-4d86-8c77-d6e36a4dfc2f}</x14:id>
+          <x14:id>{4afb44f2-a751-4ea2-a14b-85961f7eec9d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2121,7 +2121,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5791aa07-f61f-4d03-a73c-2a503cb85079}</x14:id>
+          <x14:id>{33d25bca-3c38-48d9-9288-7527c53de31a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2135,7 +2135,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0df46001-fc41-4bed-9b83-f64ccb99df05}</x14:id>
+          <x14:id>{565f4fd0-80c0-45a2-923a-306e3c8cc9cf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2149,7 +2149,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ec6fd1a-153e-4dcf-9ce4-eb7eaa887977}</x14:id>
+          <x14:id>{32504f8f-2599-4350-a3f5-122442f53d95}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2161,7 +2161,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f3afc6ad-201c-4007-b75e-13576f3cfa48}</x14:id>
+          <x14:id>{71c2f5c4-146d-4fd9-8648-fa66d71b43f0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2175,7 +2175,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{515d787d-26e5-474a-bcd7-94fbb35f424b}</x14:id>
+          <x14:id>{7636a973-9da0-41f0-9bbe-7f4463f50a7a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2187,7 +2187,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f5f676e2-e5c3-4387-a94f-5a5f62e0b76e}">
+          <x14:cfRule type="dataBar" id="{c4f34a4c-e8d3-4a29-89ed-1b54d41f322d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2197,7 +2197,7 @@
           <xm:sqref>N1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4e8900cb-7d7a-4b41-bb1c-a044bcb87c7d}">
+          <x14:cfRule type="dataBar" id="{08a2258a-f151-43ca-a37b-9090b1f69d54}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2207,7 +2207,7 @@
           <xm:sqref>J3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15178c22-57bf-46bd-a8c2-0f806089db91}">
+          <x14:cfRule type="dataBar" id="{6a8c7c65-b1f6-4e15-824f-fcfb6994b85a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2217,14 +2217,14 @@
           <xm:sqref>L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{548e73ef-125c-491a-aa1b-ea7e2b481988}">
+          <x14:cfRule type="dataBar" id="{de9ebfbd-0124-4588-b1fb-4c5351aade21}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f45ef6bc-f28b-4065-8d89-6ab786afd876}">
+          <x14:cfRule type="dataBar" id="{31adc623-7aa7-483b-ba96-840205673926}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2234,7 +2234,7 @@
           <xm:sqref>J4:J18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7db8eb0d-793f-4d86-8c77-d6e36a4dfc2f}">
+          <x14:cfRule type="dataBar" id="{4afb44f2-a751-4ea2-a14b-85961f7eec9d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2244,7 +2244,7 @@
           <xm:sqref>J4:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5791aa07-f61f-4d03-a73c-2a503cb85079}">
+          <x14:cfRule type="dataBar" id="{33d25bca-3c38-48d9-9288-7527c53de31a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2254,7 +2254,7 @@
           <xm:sqref>M3:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0df46001-fc41-4bed-9b83-f64ccb99df05}">
+          <x14:cfRule type="dataBar" id="{565f4fd0-80c0-45a2-923a-306e3c8cc9cf}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2264,14 +2264,14 @@
           <xm:sqref>K3:L1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5ec6fd1a-153e-4dcf-9ce4-eb7eaa887977}">
+          <x14:cfRule type="dataBar" id="{32504f8f-2599-4350-a3f5-122442f53d95}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f3afc6ad-201c-4007-b75e-13576f3cfa48}">
+          <x14:cfRule type="dataBar" id="{71c2f5c4-146d-4fd9-8648-fa66d71b43f0}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2281,7 +2281,7 @@
           <xm:sqref>K4:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{515d787d-26e5-474a-bcd7-94fbb35f424b}">
+          <x14:cfRule type="dataBar" id="{7636a973-9da0-41f0-9bbe-7f4463f50a7a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
-    <t>2021-01-20 08:00:00</t>
+    <t>2021-01-22 08:00:00</t>
   </si>
   <si>
     <t>挖矿成本</t>
   </si>
   <si>
-    <t>贪婪 : 78</t>
+    <t>恐惧 : 40</t>
   </si>
   <si>
     <t>$10,065.84</t>
@@ -82,7 +82,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.4752</t>
+    <t>6.4674</t>
   </si>
   <si>
     <t>ETH</t>
@@ -94,7 +94,7 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>6.36</t>
+    <t>6.45</t>
   </si>
   <si>
     <t>ADA</t>
@@ -109,12 +109,12 @@
     <t>BCH</t>
   </si>
   <si>
+    <t>BNB</t>
+  </si>
+  <si>
     <t>XLM</t>
   </si>
   <si>
-    <t>BNB</t>
-  </si>
-  <si>
     <t>EOS</t>
   </si>
   <si>
@@ -124,10 +124,10 @@
     <t>HT</t>
   </si>
   <si>
+    <t>FIL</t>
+  </si>
+  <si>
     <t>ZEC</t>
-  </si>
-  <si>
-    <t>FIL</t>
   </si>
   <si>
     <t>OKB</t>
@@ -137,14 +137,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -209,7 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +218,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +246,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,32 +301,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,9 +331,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,45 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -361,8 +362,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFCC0000"/>
+        <fgColor rgb="FF3CB371"/>
+        <bgColor rgb="FF3CB371"/>
       </patternFill>
     </fill>
     <fill>
@@ -379,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,11 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +594,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,26 +628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +654,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -655,170 +671,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,7 +833,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -847,6 +848,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,13 +858,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -871,7 +873,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -880,7 +882,7 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,7 +1271,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8303571428571" defaultRowHeight="22" customHeight="1"/>
@@ -1295,7 +1297,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1332,7 +1334,7 @@
       <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -1344,7 +1346,7 @@
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -1376,29 +1378,29 @@
       <c r="H4" s="1">
         <v>3800</v>
       </c>
-      <c r="I4" s="13">
-        <v>35834.0545396408</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="14">
+        <v>29981.5036712694</v>
+      </c>
+      <c r="J4" s="15">
         <f t="shared" ref="J4:J15" si="0">(I4-D4)/D4</f>
-        <v>10.3578619776991</v>
-      </c>
-      <c r="K4" s="14">
+        <v>8.50285377853229</v>
+      </c>
+      <c r="K4" s="15">
         <f t="shared" ref="K4:K15" si="1">(I4-F4)/F4</f>
-        <v>9.68716210546997</v>
-      </c>
-      <c r="L4" s="14">
+        <v>7.94169510028911</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" ref="L4:L17" si="2">(I4-H4)/H4</f>
-        <v>8.43001435253705</v>
+        <v>6.88986938717615</v>
       </c>
       <c r="M4" s="5">
-        <v>666701292385.27</v>
+        <v>557863200438.986</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="1" t="s">
@@ -1425,23 +1427,23 @@
       <c r="H5" s="1">
         <v>87</v>
       </c>
-      <c r="I5" s="13">
-        <v>1377.71757848652</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="14">
+        <v>1124.01847187781</v>
+      </c>
+      <c r="J5" s="15">
         <f t="shared" si="0"/>
-        <v>15.8157888256624</v>
-      </c>
-      <c r="K5" s="14">
+        <v>12.7192538981791</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="1"/>
-        <v>12.6367175936506</v>
-      </c>
-      <c r="L5" s="14">
+        <v>10.1255911301377</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="2"/>
-        <v>14.8358342354772</v>
+        <v>11.9197525503197</v>
       </c>
       <c r="M5" s="5">
-        <v>157505445468.249</v>
+        <v>128532188917.224</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>21</v>
@@ -1472,23 +1474,23 @@
       <c r="H6" s="1">
         <v>0.1011</v>
       </c>
-      <c r="I6" s="13">
-        <v>0.29036393406219</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="14">
+        <v>0.25908979668446</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>0.180341195374756</v>
-      </c>
-      <c r="K6" s="14">
+        <v>0.0532105556278863</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>0.659222480355372</v>
-      </c>
-      <c r="L6" s="14">
+        <v>0.4805131239112</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="2"/>
-        <v>1.87204682554095</v>
+        <v>1.56270817689871</v>
       </c>
       <c r="M6" s="5">
-        <v>13183692378.1828</v>
+        <v>11763720548.993</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>23</v>
@@ -1519,23 +1521,23 @@
       <c r="H7" s="1">
         <v>0.01745</v>
       </c>
-      <c r="I7" s="13">
-        <v>0.36615170616366</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="14">
+        <v>0.30682605258552</v>
+      </c>
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>12.5611743023578</v>
-      </c>
-      <c r="K7" s="14">
+        <v>10.3639278735378</v>
+      </c>
+      <c r="K7" s="15">
         <f t="shared" si="1"/>
-        <v>11.0842147248733</v>
-      </c>
-      <c r="L7" s="14">
+        <v>9.12627236255842</v>
+      </c>
+      <c r="L7" s="15">
         <f t="shared" si="2"/>
-        <v>19.9829057973444</v>
+        <v>16.583154875961</v>
       </c>
       <c r="M7" s="5">
-        <v>11391889336.1236</v>
+        <v>9546120850.05978</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>25</v>
@@ -1566,27 +1568,27 @@
       <c r="H8" s="1">
         <v>23.85</v>
       </c>
-      <c r="I8" s="13">
-        <v>152.113469184382</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8" s="14">
+        <v>130.156217370982</v>
+      </c>
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
-        <v>5.46466082381563</v>
-      </c>
-      <c r="K8" s="14">
+        <v>4.53150095074298</v>
+      </c>
+      <c r="K8" s="15">
         <f t="shared" si="1"/>
-        <v>4.20936538302677</v>
-      </c>
-      <c r="L8" s="14">
+        <v>3.45740470448569</v>
+      </c>
+      <c r="L8" s="15">
         <f t="shared" si="2"/>
-        <v>5.37792323624242</v>
+        <v>4.457283747211</v>
       </c>
       <c r="M8" s="5">
-        <v>10087707574.4942</v>
-      </c>
-      <c r="N8" s="20">
+        <v>8633390889.54428</v>
+      </c>
+      <c r="N8" s="21">
         <f>(N6-N4)/N4</f>
-        <v>-0.0177909562638991</v>
+        <v>-0.00269041655070035</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:13">
@@ -1614,23 +1616,23 @@
       <c r="H9" s="1">
         <v>129</v>
       </c>
-      <c r="I9" s="13">
-        <v>507.736536756865</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="I9" s="14">
+        <v>409.875962603609</v>
+      </c>
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
-        <v>5.84742463596581</v>
-      </c>
-      <c r="K9" s="14">
+        <v>4.52765964401361</v>
+      </c>
+      <c r="K9" s="15">
         <f t="shared" si="1"/>
-        <v>4.02410980364996</v>
-      </c>
-      <c r="L9" s="14">
+        <v>3.05576848014654</v>
+      </c>
+      <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>2.93594214540205</v>
+        <v>2.17733304343883</v>
       </c>
       <c r="M9" s="5">
-        <v>9460204273.21429</v>
+        <v>7637510847.8164</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:13">
@@ -1641,40 +1643,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>43504</v>
+        <v>43442</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0726</v>
+        <v>4.2</v>
       </c>
       <c r="E10" s="3">
-        <v>43816</v>
+        <v>43478</v>
       </c>
       <c r="F10" s="1">
-        <v>0.04213</v>
+        <v>5.37</v>
       </c>
       <c r="G10" s="3">
         <v>43903</v>
       </c>
       <c r="H10" s="1">
-        <v>0.026016</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.29711103140967</v>
-      </c>
-      <c r="J10" s="14">
+        <v>6.38</v>
+      </c>
+      <c r="I10" s="14">
+        <v>38.1939987357759</v>
+      </c>
+      <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>3.09243844916901</v>
-      </c>
-      <c r="K10" s="14">
+        <v>8.0938092228038</v>
+      </c>
+      <c r="K10" s="15">
         <f t="shared" si="1"/>
-        <v>6.05224380274555</v>
-      </c>
-      <c r="L10" s="14">
+        <v>6.11247648710911</v>
+      </c>
+      <c r="L10" s="15">
         <f t="shared" si="2"/>
-        <v>10.4203194730039</v>
+        <v>4.98652017802131</v>
       </c>
       <c r="M10" s="5">
-        <v>6564846805.89026</v>
+        <v>5902224994.92594</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:13">
@@ -1685,40 +1687,40 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>43442</v>
+        <v>43504</v>
       </c>
       <c r="D11" s="1">
-        <v>4.2</v>
+        <v>0.0726</v>
       </c>
       <c r="E11" s="3">
-        <v>43478</v>
+        <v>43816</v>
       </c>
       <c r="F11" s="1">
-        <v>5.37</v>
+        <v>0.04213</v>
       </c>
       <c r="G11" s="3">
         <v>43903</v>
       </c>
       <c r="H11" s="1">
-        <v>6.38</v>
-      </c>
-      <c r="I11" s="13">
-        <v>41.9619153413973</v>
-      </c>
-      <c r="J11" s="14">
+        <v>0.026016</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.25213585592294</v>
+      </c>
+      <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>8.9909322241422</v>
-      </c>
-      <c r="K11" s="14">
+        <v>2.4729456738697</v>
+      </c>
+      <c r="K11" s="15">
         <f t="shared" si="1"/>
-        <v>6.81413693508329</v>
-      </c>
-      <c r="L11" s="14">
+        <v>4.98471056071541</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="2"/>
-        <v>5.57710271808734</v>
+        <v>8.69156887772678</v>
       </c>
       <c r="M11" s="5">
-        <v>6484491641.64034</v>
+        <v>5571093272.98032</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:13">
@@ -1726,7 +1728,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>43441</v>
@@ -1746,23 +1748,23 @@
       <c r="H12" s="1">
         <v>1.3904</v>
       </c>
-      <c r="I12" s="13">
-        <v>2.78314155762356</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="I12" s="14">
+        <v>2.50069338790075</v>
+      </c>
+      <c r="J12" s="15">
         <f t="shared" si="0"/>
-        <v>0.822620535444375</v>
-      </c>
-      <c r="K12" s="14">
+        <v>0.637651203602325</v>
+      </c>
+      <c r="K12" s="15">
         <f t="shared" si="1"/>
-        <v>0.295629420242801</v>
-      </c>
-      <c r="L12" s="14">
+        <v>0.164141980308528</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="2"/>
-        <v>1.00168408919991</v>
+        <v>0.798542425129998</v>
       </c>
       <c r="M12" s="5">
-        <v>2615102118.47256</v>
+        <v>2349847820.1931</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:13">
@@ -1770,7 +1772,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>43441</v>
@@ -1790,23 +1792,23 @@
       <c r="H13" s="1">
         <v>3.75</v>
       </c>
-      <c r="I13" s="13">
-        <v>25.9416136987154</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="I13" s="14">
+        <v>21.6922487904985</v>
+      </c>
+      <c r="J13" s="15">
         <f t="shared" si="0"/>
-        <v>3.7862755901689</v>
-      </c>
-      <c r="K13" s="14">
+        <v>3.00225992444622</v>
+      </c>
+      <c r="K13" s="15">
         <f t="shared" si="1"/>
-        <v>3.07246682868374</v>
-      </c>
-      <c r="L13" s="14">
+        <v>2.4053765762164</v>
+      </c>
+      <c r="L13" s="15">
         <f t="shared" si="2"/>
-        <v>5.91776365299078</v>
+        <v>4.78459967746627</v>
       </c>
       <c r="M13" s="5">
-        <v>1829891104.56097</v>
+        <v>1530145871.44293</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:13">
@@ -1814,7 +1816,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3">
         <v>43442</v>
@@ -1834,23 +1836,23 @@
       <c r="H14" s="1">
         <v>1.8361</v>
       </c>
-      <c r="I14" s="13">
-        <v>5.71826029755657</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="14">
+        <v>5.12600941256505</v>
+      </c>
+      <c r="J14" s="15">
         <f t="shared" si="0"/>
-        <v>4.55170902675395</v>
-      </c>
-      <c r="K14" s="14">
+        <v>3.97670816753888</v>
+      </c>
+      <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>5.49802306540519</v>
-      </c>
-      <c r="L14" s="14">
+        <v>4.82501069609665</v>
+      </c>
+      <c r="L14" s="15">
         <f t="shared" si="2"/>
-        <v>2.11435123226217</v>
+        <v>1.79179206609937</v>
       </c>
       <c r="M14" s="5">
-        <v>1106103247.67871</v>
+        <v>1000054665.83289</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:13">
@@ -1858,7 +1860,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
         <v>43505</v>
@@ -1876,25 +1878,25 @@
         <v>43903</v>
       </c>
       <c r="H15" s="1">
-        <v>17</v>
-      </c>
-      <c r="I15" s="13">
-        <v>101.261103991413</v>
-      </c>
-      <c r="J15" s="14">
+        <v>20</v>
+      </c>
+      <c r="I15" s="14">
+        <v>21.0665065365353</v>
+      </c>
+      <c r="J15" s="15">
         <f t="shared" si="0"/>
-        <v>1.23534445897158</v>
-      </c>
-      <c r="K15" s="14">
+        <v>-0.534955705595248</v>
+      </c>
+      <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>3.03109490411675</v>
-      </c>
-      <c r="L15" s="14">
+        <v>-0.161365185647482</v>
+      </c>
+      <c r="L15" s="15">
         <f t="shared" si="2"/>
-        <v>4.95653552890663</v>
+        <v>0.0533253268267625</v>
       </c>
       <c r="M15" s="5">
-        <v>1108606566.49799</v>
+        <v>947510729.275011</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:13">
@@ -1904,31 +1906,43 @@
       <c r="B16" s="1">
         <v>39</v>
       </c>
+      <c r="C16" s="10">
+        <v>43505</v>
+      </c>
+      <c r="D16">
+        <v>45.3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>43794</v>
+      </c>
+      <c r="F16">
+        <v>25.12</v>
+      </c>
       <c r="G16" s="3">
         <v>43903</v>
       </c>
       <c r="H16" s="1">
-        <v>20</v>
-      </c>
-      <c r="I16" s="13">
-        <v>22.7067689410452</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14">
+        <v>17</v>
+      </c>
+      <c r="I16" s="14">
+        <v>84.3225787946044</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15">
         <f t="shared" si="2"/>
-        <v>0.135338447052262</v>
+        <v>3.96015169380026</v>
       </c>
       <c r="M16" s="5">
-        <v>1012363241.35519</v>
+        <v>924371513.584562</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:13">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="10">
-        <v>73</v>
+      <c r="B17" s="11">
+        <v>69</v>
       </c>
       <c r="C17" s="3">
         <v>43441</v>
@@ -1948,34 +1962,34 @@
       <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="13">
-        <v>5.9731615585932</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="I17" s="14">
+        <v>5.93529134333004</v>
+      </c>
+      <c r="J17" s="15">
         <f>(I17-D17)/D17</f>
-        <v>8.58773925937913</v>
-      </c>
-      <c r="K17" s="14">
+        <v>8.52695239699846</v>
+      </c>
+      <c r="K17" s="15">
         <f>(I17-F17)/F17</f>
-        <v>9.47923080454948</v>
-      </c>
-      <c r="L17" s="14">
+        <v>9.41279183040358</v>
+      </c>
+      <c r="L17" s="15">
         <f t="shared" si="2"/>
-        <v>1.9865807792966</v>
+        <v>1.96764567166502</v>
       </c>
       <c r="M17" s="5">
-        <v>358389693.515592</v>
+        <v>356117480.599802</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="25" customHeight="1" spans="3:13">
-      <c r="C18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="21"/>
+      <c r="C18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1991,7 +2005,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c4f34a4c-e8d3-4a29-89ed-1b54d41f322d}</x14:id>
+          <x14:id>{5ca8ac40-2ffb-4d3d-975c-8b6ba6f8bc9a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2005,7 +2019,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08a2258a-f151-43ca-a37b-9090b1f69d54}</x14:id>
+          <x14:id>{5cfa5410-0e3c-4ae5-bd7f-ad98b3b14c1a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2019,7 +2033,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a8c7c65-b1f6-4e15-824f-fcfb6994b85a}</x14:id>
+          <x14:id>{80b3fcbc-a5c9-4e54-ae4e-e928b438eb45}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2081,7 +2095,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ebfbd-0124-4588-b1fb-4c5351aade21}</x14:id>
+          <x14:id>{569f9c08-3230-4a00-9eb0-aa28fd3649e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2093,7 +2107,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31adc623-7aa7-483b-ba96-840205673926}</x14:id>
+          <x14:id>{365cd21a-5744-478b-91fe-890f82e1fd82}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2107,7 +2121,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afb44f2-a751-4ea2-a14b-85961f7eec9d}</x14:id>
+          <x14:id>{dd5c72fe-ca33-4b04-9a3a-efa6f2a02399}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2121,7 +2135,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33d25bca-3c38-48d9-9288-7527c53de31a}</x14:id>
+          <x14:id>{5f73d14e-760f-4423-b16c-21c30632492b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2135,7 +2149,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{565f4fd0-80c0-45a2-923a-306e3c8cc9cf}</x14:id>
+          <x14:id>{7acbe0f3-46e5-499d-b293-5f02649ec798}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2149,7 +2163,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32504f8f-2599-4350-a3f5-122442f53d95}</x14:id>
+          <x14:id>{0c01f8de-dafe-4acd-9ae2-4ce2bf5f3388}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2161,7 +2175,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71c2f5c4-146d-4fd9-8648-fa66d71b43f0}</x14:id>
+          <x14:id>{8a65be2f-4f55-487f-86ca-9b825f608dc5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2175,7 +2189,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7636a973-9da0-41f0-9bbe-7f4463f50a7a}</x14:id>
+          <x14:id>{922cd366-f90c-420e-be27-f330e750788b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2187,7 +2201,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c4f34a4c-e8d3-4a29-89ed-1b54d41f322d}">
+          <x14:cfRule type="dataBar" id="{5ca8ac40-2ffb-4d3d-975c-8b6ba6f8bc9a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2197,7 +2211,7 @@
           <xm:sqref>N1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08a2258a-f151-43ca-a37b-9090b1f69d54}">
+          <x14:cfRule type="dataBar" id="{5cfa5410-0e3c-4ae5-bd7f-ad98b3b14c1a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2207,7 +2221,7 @@
           <xm:sqref>J3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a8c7c65-b1f6-4e15-824f-fcfb6994b85a}">
+          <x14:cfRule type="dataBar" id="{80b3fcbc-a5c9-4e54-ae4e-e928b438eb45}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2217,14 +2231,14 @@
           <xm:sqref>L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de9ebfbd-0124-4588-b1fb-4c5351aade21}">
+          <x14:cfRule type="dataBar" id="{569f9c08-3230-4a00-9eb0-aa28fd3649e6}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{31adc623-7aa7-483b-ba96-840205673926}">
+          <x14:cfRule type="dataBar" id="{365cd21a-5744-478b-91fe-890f82e1fd82}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2234,7 +2248,7 @@
           <xm:sqref>J4:J18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afb44f2-a751-4ea2-a14b-85961f7eec9d}">
+          <x14:cfRule type="dataBar" id="{dd5c72fe-ca33-4b04-9a3a-efa6f2a02399}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2244,7 +2258,7 @@
           <xm:sqref>J4:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33d25bca-3c38-48d9-9288-7527c53de31a}">
+          <x14:cfRule type="dataBar" id="{5f73d14e-760f-4423-b16c-21c30632492b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2254,7 +2268,7 @@
           <xm:sqref>M3:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{565f4fd0-80c0-45a2-923a-306e3c8cc9cf}">
+          <x14:cfRule type="dataBar" id="{7acbe0f3-46e5-499d-b293-5f02649ec798}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2264,14 +2278,14 @@
           <xm:sqref>K3:L1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{32504f8f-2599-4350-a3f5-122442f53d95}">
+          <x14:cfRule type="dataBar" id="{0c01f8de-dafe-4acd-9ae2-4ce2bf5f3388}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{71c2f5c4-146d-4fd9-8648-fa66d71b43f0}">
+          <x14:cfRule type="dataBar" id="{8a65be2f-4f55-487f-86ca-9b825f608dc5}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2281,7 +2295,7 @@
           <xm:sqref>K4:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7636a973-9da0-41f0-9bbe-7f4463f50a7a}">
+          <x14:cfRule type="dataBar" id="{922cd366-f90c-420e-be27-f330e750788b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>

--- a/block_chain_analyze.xlsx
+++ b/block_chain_analyze.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
-  <si>
-    <t>2021-01-22 08:00:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+  <si>
+    <t>2021-02-02 08:00:00</t>
   </si>
   <si>
     <t>挖矿成本</t>
   </si>
   <si>
-    <t>恐惧 : 40</t>
+    <t>贪婪 : 76</t>
   </si>
   <si>
     <t>$10,065.84</t>
@@ -82,7 +82,7 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>6.4674</t>
+    <t>6.4615</t>
   </si>
   <si>
     <t>ETH</t>
@@ -94,7 +94,7 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>6.45</t>
+    <t>6.40</t>
   </si>
   <si>
     <t>ADA</t>
@@ -106,12 +106,12 @@
     <t>LTC</t>
   </si>
   <si>
+    <t>BNB</t>
+  </si>
+  <si>
     <t>BCH</t>
   </si>
   <si>
-    <t>BNB</t>
-  </si>
-  <si>
     <t>XLM</t>
   </si>
   <si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>FIL</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>ZEC</t>
@@ -137,17 +140,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +192,13 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.05"/>
+      <name val="PingFang SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="PingFang SC Regular"/>
       <charset val="134"/>
     </font>
@@ -210,14 +219,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +279,51 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -246,25 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,40 +346,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,36 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -362,8 +371,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3CB371"/>
-        <bgColor rgb="FF3CB371"/>
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -380,25 +389,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,157 +545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +580,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,30 +612,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,9 +633,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,21 +657,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -674,152 +683,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,35 +836,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -864,7 +875,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -873,7 +887,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -882,7 +896,7 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8303571428571" defaultRowHeight="22" customHeight="1"/>
@@ -1282,7 +1296,7 @@
     <col min="4" max="4" width="8.03571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.2857142857143" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.57142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3571428571429" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.57142857142857" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.0803571428571" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.4107142857143" style="1" customWidth="1"/>
@@ -1297,7 +1311,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1346,7 +1360,7 @@
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -1379,28 +1393,28 @@
         <v>3800</v>
       </c>
       <c r="I4" s="14">
-        <v>29981.5036712694</v>
+        <v>33677.2217448039</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J15" si="0">(I4-D4)/D4</f>
-        <v>8.50285377853229</v>
+        <f t="shared" ref="J4:J17" si="0">(I4-D4)/D4</f>
+        <v>9.67423827093625</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K15" si="1">(I4-F4)/F4</f>
-        <v>7.94169510028911</v>
+        <f t="shared" ref="K4:K17" si="1">(I4-F4)/F4</f>
+        <v>9.04390746937187</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" ref="L4:L17" si="2">(I4-H4)/H4</f>
-        <v>6.88986938717615</v>
+        <v>7.86242677494839</v>
       </c>
       <c r="M4" s="5">
-        <v>557863200438.986</v>
+        <v>626958936119.821</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="1" t="s">
@@ -1428,22 +1442,22 @@
         <v>87</v>
       </c>
       <c r="I5" s="14">
-        <v>1124.01847187781</v>
+        <v>1376.75613576784</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="0"/>
-        <v>12.7192538981791</v>
+        <v>15.8040538968368</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="1"/>
-        <v>10.1255911301377</v>
+        <v>12.627201185468</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="2"/>
-        <v>11.9197525503197</v>
+        <v>14.8247831697452</v>
       </c>
       <c r="M5" s="5">
-        <v>128532188917.224</v>
+        <v>157637377270.832</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>21</v>
@@ -1454,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>43326</v>
@@ -1475,22 +1489,22 @@
         <v>0.1011</v>
       </c>
       <c r="I6" s="14">
-        <v>0.25908979668446</v>
+        <v>0.37293633712016</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>0.0532105556278863</v>
+        <v>0.516001370407155</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>0.4805131239112</v>
+        <v>1.13106478354377</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="2"/>
-        <v>1.56270817689871</v>
+        <v>2.68878671731118</v>
       </c>
       <c r="M6" s="5">
-        <v>11763720548.993</v>
+        <v>16932812131.5004</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>23</v>
@@ -1522,22 +1536,22 @@
         <v>0.01745</v>
       </c>
       <c r="I7" s="14">
-        <v>0.30682605258552</v>
+        <v>0.3987446990369</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>10.3639278735378</v>
+        <v>13.7683221865519</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="1"/>
-        <v>9.12627236255842</v>
+        <v>12.1598910573234</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="2"/>
-        <v>16.583154875961</v>
+        <v>21.8506990852092</v>
       </c>
       <c r="M7" s="5">
-        <v>9546120850.05978</v>
+        <v>12405938326.4594</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>25</v>
@@ -1548,7 +1562,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>43448</v>
@@ -1569,26 +1583,26 @@
         <v>23.85</v>
       </c>
       <c r="I8" s="14">
-        <v>130.156217370982</v>
+        <v>134.45672882954</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="0"/>
-        <v>4.53150095074298</v>
+        <v>4.71426811855249</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="1"/>
-        <v>3.45740470448569</v>
+        <v>3.60468249416234</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="2"/>
-        <v>4.457283747211</v>
+        <v>4.63759869306248</v>
       </c>
       <c r="M8" s="5">
-        <v>8633390889.54428</v>
-      </c>
-      <c r="N8" s="21">
+        <v>8928180894.65688</v>
+      </c>
+      <c r="N8" s="22">
         <f>(N6-N4)/N4</f>
-        <v>-0.00269041655070035</v>
+        <v>-0.00951791379710588</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:13">
@@ -1596,43 +1610,43 @@
         <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>43449</v>
+        <v>43442</v>
       </c>
       <c r="D9" s="1">
-        <v>74.15</v>
+        <v>4.2</v>
       </c>
       <c r="E9" s="3">
-        <v>43493</v>
+        <v>43478</v>
       </c>
       <c r="F9" s="1">
-        <v>101.06</v>
+        <v>5.37</v>
       </c>
       <c r="G9" s="3">
         <v>43903</v>
       </c>
       <c r="H9" s="1">
-        <v>129</v>
+        <v>6.38</v>
       </c>
       <c r="I9" s="14">
-        <v>409.875962603609</v>
+        <v>50.765160123769</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="0"/>
-        <v>4.52765964401361</v>
+        <v>11.0869428866117</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="1"/>
-        <v>3.05576848014654</v>
+        <v>8.45347488338343</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>2.17733304343883</v>
+        <v>6.95692164949358</v>
       </c>
       <c r="M9" s="5">
-        <v>7637510847.8164</v>
+        <v>7844881574.89697</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:13">
@@ -1643,40 +1657,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>43442</v>
+        <v>43449</v>
       </c>
       <c r="D10" s="1">
-        <v>4.2</v>
+        <v>74.15</v>
       </c>
       <c r="E10" s="3">
-        <v>43478</v>
+        <v>43493</v>
       </c>
       <c r="F10" s="1">
-        <v>5.37</v>
+        <v>101.06</v>
       </c>
       <c r="G10" s="3">
         <v>43903</v>
       </c>
       <c r="H10" s="1">
-        <v>6.38</v>
+        <v>129</v>
       </c>
       <c r="I10" s="14">
-        <v>38.1939987357759</v>
+        <v>416.445443973709</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>8.0938092228038</v>
+        <v>4.61625683039392</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="1"/>
-        <v>6.11247648710911</v>
+        <v>3.12077423286869</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="2"/>
-        <v>4.98652017802131</v>
+        <v>2.22825925561015</v>
       </c>
       <c r="M10" s="5">
-        <v>5902224994.92594</v>
+        <v>7763945976.25933</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:13">
@@ -1705,22 +1719,22 @@
         <v>0.026016</v>
       </c>
       <c r="I11" s="14">
-        <v>0.25213585592294</v>
+        <v>0.32145424194859</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>2.4729456738697</v>
+        <v>3.42774437945716</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="1"/>
-        <v>4.98471056071541</v>
+        <v>6.6300555886207</v>
       </c>
       <c r="L11" s="15">
         <f t="shared" si="2"/>
-        <v>8.69156887772678</v>
+        <v>11.3560209851088</v>
       </c>
       <c r="M11" s="5">
-        <v>5571093272.98032</v>
+        <v>7159354174.96236</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:13">
@@ -1728,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>43441</v>
@@ -1749,22 +1763,22 @@
         <v>1.3904</v>
       </c>
       <c r="I12" s="14">
-        <v>2.50069338790075</v>
+        <v>2.99120056143978</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="0"/>
-        <v>0.637651203602325</v>
+        <v>0.958873976057485</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="1"/>
-        <v>0.164141980308528</v>
+        <v>0.392486644681244</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="2"/>
-        <v>0.798542425129998</v>
+        <v>1.15132376398143</v>
       </c>
       <c r="M12" s="5">
-        <v>2349847820.1931</v>
+        <v>2842199257.85625</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:13">
@@ -1772,7 +1786,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>43441</v>
@@ -1793,22 +1807,22 @@
         <v>3.75</v>
       </c>
       <c r="I13" s="14">
-        <v>21.6922487904985</v>
+        <v>22.6748397316075</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="0"/>
-        <v>3.00225992444622</v>
+        <v>3.18354976597925</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="1"/>
-        <v>2.4053765762164</v>
+        <v>2.55962947120997</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="2"/>
-        <v>4.78459967746627</v>
+        <v>5.04662392842867</v>
       </c>
       <c r="M13" s="5">
-        <v>1530145871.44293</v>
+        <v>1599456687.77995</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:13">
@@ -1837,22 +1851,22 @@
         <v>1.8361</v>
       </c>
       <c r="I14" s="14">
-        <v>5.12600941256505</v>
+        <v>6.72710925449227</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="0"/>
-        <v>3.97670816753888</v>
+        <v>5.53117403348764</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>4.82501069609665</v>
+        <v>6.64444233465031</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="2"/>
-        <v>1.79179206609937</v>
+        <v>2.66380330836679</v>
       </c>
       <c r="M14" s="5">
-        <v>1000054665.83289</v>
+        <v>1312419946.21235</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:13">
@@ -1860,19 +1874,19 @@
         <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3">
-        <v>43505</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45.3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>43794</v>
-      </c>
-      <c r="F15" s="1">
-        <v>25.12</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G15" s="3">
         <v>43903</v>
@@ -1881,41 +1895,41 @@
         <v>20</v>
       </c>
       <c r="I15" s="14">
-        <v>21.0665065365353</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="0"/>
-        <v>-0.534955705595248</v>
-      </c>
-      <c r="K15" s="15">
+        <v>22.4861642434469</v>
+      </c>
+      <c r="J15" s="15" t="e">
+        <f>(I15-D15)/D15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="15" t="e">
         <f t="shared" si="1"/>
-        <v>-0.161365185647482</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="2"/>
-        <v>0.0533253268267625</v>
+        <v>0.124308212172343</v>
       </c>
       <c r="M15" s="5">
-        <v>947510729.275011</v>
+        <v>1070650175.5093</v>
       </c>
     </row>
-    <row r="16" ht="25" customHeight="1" spans="1:13">
+    <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>39</v>
-      </c>
-      <c r="C16" s="10">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3">
         <v>43505</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>45.3</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="3">
         <v>43794</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>25.12</v>
       </c>
       <c r="G16" s="3">
@@ -1924,25 +1938,31 @@
       <c r="H16" s="1">
         <v>17</v>
       </c>
-      <c r="I16" s="14">
-        <v>84.3225787946044</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="I16" s="16">
+        <v>91.8093101133749</v>
+      </c>
+      <c r="J16" s="15">
+        <f>(I16-D16)/D16</f>
+        <v>1.02669558749172</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>2.65482922425855</v>
+      </c>
       <c r="L16" s="15">
         <f t="shared" si="2"/>
-        <v>3.96015169380026</v>
+        <v>4.40054765372793</v>
       </c>
       <c r="M16" s="5">
-        <v>924371513.584562</v>
+        <v>1013672904.85184</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:13">
-      <c r="A17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="11">
-        <v>69</v>
+      <c r="A17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="10">
+        <v>81</v>
       </c>
       <c r="C17" s="3">
         <v>43441</v>
@@ -1963,33 +1983,33 @@
         <v>2</v>
       </c>
       <c r="I17" s="14">
-        <v>5.93529134333004</v>
+        <v>5.74426170553362</v>
       </c>
       <c r="J17" s="15">
         <f>(I17-D17)/D17</f>
-        <v>8.52695239699846</v>
+        <v>8.22032376490148</v>
       </c>
       <c r="K17" s="15">
-        <f>(I17-F17)/F17</f>
-        <v>9.41279183040358</v>
+        <f t="shared" si="1"/>
+        <v>9.07765211497126</v>
       </c>
       <c r="L17" s="15">
         <f t="shared" si="2"/>
-        <v>1.96764567166502</v>
+        <v>1.87213085276681</v>
       </c>
       <c r="M17" s="5">
-        <v>356117480.599802</v>
+        <v>344655702.332017</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="25" customHeight="1" spans="3:13">
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="E18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="22"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2005,7 +2025,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ca8ac40-2ffb-4d3d-975c-8b6ba6f8bc9a}</x14:id>
+          <x14:id>{8617681a-6d2c-423d-8a66-28b32ab879c7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2019,7 +2039,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5cfa5410-0e3c-4ae5-bd7f-ad98b3b14c1a}</x14:id>
+          <x14:id>{dabe3e0d-6363-43b2-821a-193c5b88b681}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2033,7 +2053,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80b3fcbc-a5c9-4e54-ae4e-e928b438eb45}</x14:id>
+          <x14:id>{68048cf0-b728-459f-bd5a-cbda6bfe31d8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2095,7 +2115,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{569f9c08-3230-4a00-9eb0-aa28fd3649e6}</x14:id>
+          <x14:id>{fcb96e08-62a0-44de-a201-25a44ac93cdf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2107,7 +2127,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{365cd21a-5744-478b-91fe-890f82e1fd82}</x14:id>
+          <x14:id>{5f9a59b2-9e69-42ea-8f8c-30471c7abf70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2121,7 +2141,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd5c72fe-ca33-4b04-9a3a-efa6f2a02399}</x14:id>
+          <x14:id>{932de9a6-59ab-40c9-a55a-bee5459aebbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2135,7 +2155,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f73d14e-760f-4423-b16c-21c30632492b}</x14:id>
+          <x14:id>{5fd4a1cc-9a35-4777-8d91-21f63c662ab7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2149,7 +2169,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7acbe0f3-46e5-499d-b293-5f02649ec798}</x14:id>
+          <x14:id>{73b615a2-a0c1-486e-ade1-a3775ef08204}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2163,7 +2183,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0c01f8de-dafe-4acd-9ae2-4ce2bf5f3388}</x14:id>
+          <x14:id>{2d4068d1-bea4-403f-93ad-12f89051616f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2175,7 +2195,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a65be2f-4f55-487f-86ca-9b825f608dc5}</x14:id>
+          <x14:id>{c1713ccc-7457-47d3-af44-5155c89486ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2189,7 +2209,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{922cd366-f90c-420e-be27-f330e750788b}</x14:id>
+          <x14:id>{867dc419-5c9b-4576-9fc6-4f951efab5e4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2201,7 +2221,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5ca8ac40-2ffb-4d3d-975c-8b6ba6f8bc9a}">
+          <x14:cfRule type="dataBar" id="{8617681a-6d2c-423d-8a66-28b32ab879c7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2211,7 +2231,7 @@
           <xm:sqref>N1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5cfa5410-0e3c-4ae5-bd7f-ad98b3b14c1a}">
+          <x14:cfRule type="dataBar" id="{dabe3e0d-6363-43b2-821a-193c5b88b681}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2221,7 +2241,7 @@
           <xm:sqref>J3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80b3fcbc-a5c9-4e54-ae4e-e928b438eb45}">
+          <x14:cfRule type="dataBar" id="{68048cf0-b728-459f-bd5a-cbda6bfe31d8}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2231,14 +2251,14 @@
           <xm:sqref>L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{569f9c08-3230-4a00-9eb0-aa28fd3649e6}">
+          <x14:cfRule type="dataBar" id="{fcb96e08-62a0-44de-a201-25a44ac93cdf}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{365cd21a-5744-478b-91fe-890f82e1fd82}">
+          <x14:cfRule type="dataBar" id="{5f9a59b2-9e69-42ea-8f8c-30471c7abf70}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2248,7 +2268,7 @@
           <xm:sqref>J4:J18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd5c72fe-ca33-4b04-9a3a-efa6f2a02399}">
+          <x14:cfRule type="dataBar" id="{932de9a6-59ab-40c9-a55a-bee5459aebbb}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2258,7 +2278,7 @@
           <xm:sqref>J4:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f73d14e-760f-4423-b16c-21c30632492b}">
+          <x14:cfRule type="dataBar" id="{5fd4a1cc-9a35-4777-8d91-21f63c662ab7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2268,7 +2288,7 @@
           <xm:sqref>M3:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7acbe0f3-46e5-499d-b293-5f02649ec798}">
+          <x14:cfRule type="dataBar" id="{73b615a2-a0c1-486e-ade1-a3775ef08204}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2278,14 +2298,14 @@
           <xm:sqref>K3:L1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0c01f8de-dafe-4acd-9ae2-4ce2bf5f3388}">
+          <x14:cfRule type="dataBar" id="{2d4068d1-bea4-403f-93ad-12f89051616f}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8a65be2f-4f55-487f-86ca-9b825f608dc5}">
+          <x14:cfRule type="dataBar" id="{c1713ccc-7457-47d3-af44-5155c89486ad}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2295,7 +2315,7 @@
           <xm:sqref>K4:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{922cd366-f90c-420e-be27-f330e750788b}">
+          <x14:cfRule type="dataBar" id="{867dc419-5c9b-4576-9fc6-4f951efab5e4}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
